--- a/storage/history.xlsx
+++ b/storage/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>car_point</t>
   </si>
@@ -43,19 +43,106 @@
     <t>all_p</t>
   </si>
   <si>
+    <t>by</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>A_DF3</t>
   </si>
   <si>
+    <t>A_O</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
     <t>A_DF1</t>
   </si>
   <si>
-    <t>A_O</t>
+    <t>A_XN1</t>
+  </si>
+  <si>
+    <t>A_XB3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>21,22</t>
+  </si>
+  <si>
+    <t>23,24</t>
   </si>
   <si>
     <t>2018-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A_7</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>B_7</t>
+  </si>
+  <si>
+    <t>B_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>B_2</t>
+  </si>
+  <si>
+    <t>B_3</t>
   </si>
 </sst>
 </file>
@@ -413,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -450,8 +537,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -483,15 +573,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>20.4</v>
@@ -509,10 +599,605 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>57.90000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>440</v>
+      </c>
+      <c r="G4">
+        <v>132</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>440</v>
+      </c>
+      <c r="G5">
+        <v>132</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>440</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>440</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>490</v>
+      </c>
+      <c r="G8">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>147</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>490</v>
+      </c>
+      <c r="G9">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>147</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>490</v>
+      </c>
+      <c r="G10">
+        <v>122.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>122.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>490</v>
+      </c>
+      <c r="G11">
+        <v>122.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>122.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>490</v>
+      </c>
+      <c r="G12">
+        <v>147</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>742</v>
+      </c>
+      <c r="G13">
+        <v>147</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>210</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>490</v>
+      </c>
+      <c r="G14">
+        <v>122.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>122.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>50.40000000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>742</v>
+      </c>
+      <c r="G15">
+        <v>122.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>172.9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>50.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>592</v>
+      </c>
+      <c r="G16">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>167.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>110.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>932</v>
+      </c>
+      <c r="G17">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>257.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>110.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>932</v>
+      </c>
+      <c r="G18">
+        <v>147</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>257.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>50.40000000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>742</v>
+      </c>
+      <c r="G19">
+        <v>122.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19">
+        <v>172.9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>932</v>
+      </c>
+      <c r="G20">
+        <v>122.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20">
+        <v>210.9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history.xlsx
+++ b/storage/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="52">
   <si>
     <t>car_point</t>
   </si>
@@ -58,12 +58,21 @@
     <t>A_XB2</t>
   </si>
   <si>
+    <t>A_DF2</t>
+  </si>
+  <si>
+    <t>B_DF1</t>
+  </si>
+  <si>
     <t>A_DF1</t>
   </si>
   <si>
     <t>A_XN1</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>A_XB3</t>
   </si>
   <si>
@@ -115,6 +124,12 @@
     <t>2018-01-09 00:00:00</t>
   </si>
   <si>
+    <t>2018-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-11 00:00:00</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -143,6 +158,18 @@
   </si>
   <si>
     <t>B_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>B_4</t>
+  </si>
+  <si>
+    <t>A_13</t>
+  </si>
+  <si>
+    <t>train</t>
   </si>
 </sst>
 </file>
@@ -500,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>20.4</v>
@@ -599,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>57.90000000000001</v>
@@ -628,16 +655,16 @@
         <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,16 +690,16 @@
         <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,16 +725,16 @@
         <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,16 +760,16 @@
         <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -759,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>490</v>
@@ -768,16 +795,16 @@
         <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>490</v>
@@ -803,16 +830,16 @@
         <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>147</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -829,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>490</v>
@@ -838,16 +865,16 @@
         <v>122.5</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>122.5</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -864,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>490</v>
@@ -873,16 +900,16 @@
         <v>122.5</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>122.5</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -899,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>490</v>
@@ -908,16 +935,16 @@
         <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -934,7 +961,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>742</v>
@@ -943,16 +970,16 @@
         <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -969,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>490</v>
@@ -978,16 +1005,16 @@
         <v>122.5</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J14">
         <v>122.5</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1004,7 +1031,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>742</v>
@@ -1013,16 +1040,16 @@
         <v>122.5</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <v>172.9</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1033,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>50.5</v>
@@ -1048,16 +1075,16 @@
         <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>167.5</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1074,7 +1101,7 @@
         <v>110.5</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>932</v>
@@ -1083,16 +1110,16 @@
         <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J17">
         <v>257.5</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1109,7 +1136,7 @@
         <v>110.5</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>932</v>
@@ -1118,16 +1145,16 @@
         <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J18">
         <v>257.5</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1144,7 +1171,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>742</v>
@@ -1153,16 +1180,16 @@
         <v>122.5</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>172.9</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1179,7 +1206,7 @@
         <v>88.40000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>932</v>
@@ -1188,16 +1215,324 @@
         <v>122.5</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J20">
         <v>210.9</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>392</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>50.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>402</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>110.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>38.40000000000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>392</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>402</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>125.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>852</v>
+      </c>
+      <c r="G25">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>230.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>702</v>
+      </c>
+      <c r="G26">
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>110.4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>902</v>
+      </c>
+      <c r="G27">
+        <v>87.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>197.9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>702</v>
+      </c>
+      <c r="G28">
+        <v>87.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28">
+        <v>157.9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history.xlsx
+++ b/storage/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="52">
   <si>
     <t>car_point</t>
   </si>
@@ -527,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1535,6 +1535,202 @@
         <v>51</v>
       </c>
     </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/history.xlsx
+++ b/storage/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>car_point</t>
   </si>
@@ -49,6 +49,12 @@
     <t>id</t>
   </si>
   <si>
+    <t>B_DF2</t>
+  </si>
+  <si>
+    <t>A_DF3</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -58,7 +64,64 @@
     <t>B_O</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>2018-01-02 00:00:00</t>
+  </si>
+  <si>
     <t>train</t>
+  </si>
+  <si>
+    <t>A_10</t>
+  </si>
+  <si>
+    <t>B_11</t>
+  </si>
+  <si>
+    <t>C_7</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>A_5</t>
+  </si>
+  <si>
+    <t>A_6</t>
   </si>
 </sst>
 </file>
@@ -416,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -508,13 +571,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +585,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -536,13 +599,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -550,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -564,13 +627,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -578,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -592,13 +655,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -606,13 +669,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -620,13 +683,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -634,13 +697,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -648,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -662,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -676,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -690,13 +753,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -704,13 +767,412 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>60</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>14</v>
+      </c>
+      <c r="F28">
+        <v>250</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>250</v>
+      </c>
+      <c r="G29">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>75</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>250</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>75</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>250</v>
+      </c>
+      <c r="G31">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>75</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>250</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>250</v>
+      </c>
+      <c r="G33">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history.xlsx
+++ b/storage/history.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E87EB-3573-495E-8C90-A5506A977122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="768" yWindow="696" windowWidth="21120" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="174">
   <si>
     <t>car_point</t>
   </si>
@@ -91,6 +97,9 @@
     <t>A_XB2</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -385,6 +394,9 @@
     <t>2019-01-01 00:00:00</t>
   </si>
   <si>
+    <t>2018-11-29 00:00:00</t>
+  </si>
+  <si>
     <t>B_1</t>
   </si>
   <si>
@@ -518,17 +530,32 @@
   </si>
   <si>
     <t>C_6</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -536,8 +563,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -583,15 +617,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,9 +707,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,6 +759,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,14 +952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K360"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="K371" sqref="K371"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,7 +996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -948,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -971,19 +1051,19 @@
         <v>62.5</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1006,19 +1086,19 @@
         <v>62.5</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1029,10 +1109,10 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1055,19 +1135,19 @@
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1090,19 +1170,19 @@
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1125,19 +1205,19 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1160,19 +1240,19 @@
         <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1195,19 +1275,19 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,19 +1310,19 @@
         <v>37.5</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>47.9</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1265,19 +1345,19 @@
         <v>37.5</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>47.9</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1288,10 +1368,10 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1302,10 +1382,10 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1328,19 +1408,19 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15">
         <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1351,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1363,19 +1443,19 @@
         <v>22.5</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16">
-        <v>62.90000000000001</v>
+        <v>62.900000000000013</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1398,19 +1478,19 @@
         <v>22.5</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>52.90000000000001</v>
+        <v>52.900000000000013</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1421,10 +1501,10 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1447,19 +1527,19 @@
         <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1482,19 +1562,19 @@
         <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1517,19 +1597,19 @@
         <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1552,19 +1632,19 @@
         <v>37.5</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>37.5</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1575,10 +1655,10 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1589,10 +1669,10 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1615,19 +1695,19 @@
         <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1650,19 +1730,19 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1685,19 +1765,19 @@
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1720,19 +1800,19 @@
         <v>37.5</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>37.5</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1743,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1769,19 +1849,19 @@
         <v>37.5</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>37.5</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1804,19 +1884,19 @@
         <v>37.5</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>37.5</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1827,10 +1907,10 @@
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1841,10 +1921,10 @@
         <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1855,10 +1935,10 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1881,19 +1961,19 @@
         <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1916,19 +1996,19 @@
         <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>132.5</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1951,19 +2031,19 @@
         <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>132.5</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1986,19 +2066,19 @@
         <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>132.5</v>
       </c>
       <c r="K38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2021,19 +2101,19 @@
         <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>132.5</v>
       </c>
       <c r="K39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2056,19 +2136,19 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2091,19 +2171,19 @@
         <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>132.5</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2126,19 +2206,19 @@
         <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>132.5</v>
       </c>
       <c r="K42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2149,7 +2229,7 @@
         <v>17</v>
       </c>
       <c r="D43">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -2161,19 +2241,19 @@
         <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>100.4</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2184,7 +2264,7 @@
         <v>17</v>
       </c>
       <c r="D44">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -2196,19 +2276,19 @@
         <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J44">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2219,10 +2299,10 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2245,19 +2325,19 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>132.5</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2280,19 +2360,19 @@
         <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>132.5</v>
       </c>
       <c r="K47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2315,19 +2395,19 @@
         <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>132.5</v>
       </c>
       <c r="K48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2350,19 +2430,19 @@
         <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>132.5</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2385,19 +2465,19 @@
         <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>132.5</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2420,19 +2500,19 @@
         <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>132.5</v>
       </c>
       <c r="K51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2455,19 +2535,19 @@
         <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>132.5</v>
       </c>
       <c r="K52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2490,19 +2570,19 @@
         <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>132.5</v>
       </c>
       <c r="K53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2513,7 +2593,7 @@
         <v>17</v>
       </c>
       <c r="D54">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -2525,19 +2605,19 @@
         <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>100.4</v>
       </c>
       <c r="K54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2548,7 +2628,7 @@
         <v>17</v>
       </c>
       <c r="D55">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
@@ -2560,19 +2640,19 @@
         <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="K55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2595,19 +2675,19 @@
         <v>60</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J56">
         <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2630,19 +2710,19 @@
         <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>73</v>
       </c>
       <c r="K57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2665,19 +2745,19 @@
         <v>50</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2700,19 +2780,19 @@
         <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>40.4</v>
       </c>
       <c r="K59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2723,10 +2803,10 @@
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2749,19 +2829,19 @@
         <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <v>72</v>
       </c>
       <c r="K61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2784,19 +2864,19 @@
         <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2819,19 +2899,19 @@
         <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>132.5</v>
       </c>
       <c r="K63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2854,19 +2934,19 @@
         <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J64">
         <v>132.5</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2889,19 +2969,19 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J65">
         <v>132.5</v>
       </c>
       <c r="K65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2912,10 +2992,10 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2938,19 +3018,19 @@
         <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J67">
         <v>120.5</v>
       </c>
       <c r="K67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2973,19 +3053,19 @@
         <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J68">
         <v>110.5</v>
       </c>
       <c r="K68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3008,19 +3088,19 @@
         <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J69">
         <v>120.5</v>
       </c>
       <c r="K69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3043,19 +3123,19 @@
         <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J70">
         <v>110.5</v>
       </c>
       <c r="K70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3078,19 +3158,19 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J71">
         <v>120.5</v>
       </c>
       <c r="K71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3113,19 +3193,19 @@
         <v>60</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J72">
         <v>110.5</v>
       </c>
       <c r="K72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3148,19 +3228,19 @@
         <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J73">
         <v>110.5</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3183,19 +3263,19 @@
         <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J74">
         <v>110.5</v>
       </c>
       <c r="K74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3218,19 +3298,19 @@
         <v>50</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J75">
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3241,10 +3321,10 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3267,19 +3347,19 @@
         <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J77">
         <v>110.5</v>
       </c>
       <c r="K77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3302,19 +3382,19 @@
         <v>60</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J78">
         <v>110.5</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3337,19 +3417,19 @@
         <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J79">
         <v>110.5</v>
       </c>
       <c r="K79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3372,19 +3452,19 @@
         <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J80">
         <v>110.5</v>
       </c>
       <c r="K80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3407,19 +3487,19 @@
         <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J81">
         <v>110.5</v>
       </c>
       <c r="K81" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3430,10 +3510,10 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3456,19 +3536,19 @@
         <v>60</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>110.5</v>
       </c>
       <c r="K83" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3491,19 +3571,19 @@
         <v>60</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>110.5</v>
       </c>
       <c r="K84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3514,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="D85">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
@@ -3526,19 +3606,19 @@
         <v>50</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J85">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="K85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3561,19 +3641,19 @@
         <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3584,10 +3664,10 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3598,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="D88">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
@@ -3610,19 +3690,19 @@
         <v>50</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J88">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="K88" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3633,10 +3713,10 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3647,10 +3727,10 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3661,10 +3741,10 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3675,10 +3755,10 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3701,19 +3781,19 @@
         <v>60</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>110.5</v>
       </c>
       <c r="K93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3736,19 +3816,19 @@
         <v>60</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>110.5</v>
       </c>
       <c r="K94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3771,19 +3851,19 @@
         <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J95">
         <v>110.5</v>
       </c>
       <c r="K95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3806,19 +3886,19 @@
         <v>60</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J96">
         <v>110.5</v>
       </c>
       <c r="K96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3841,19 +3921,19 @@
         <v>60</v>
       </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J97">
         <v>120.5</v>
       </c>
       <c r="K97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3876,19 +3956,19 @@
         <v>60</v>
       </c>
       <c r="H98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J98">
         <v>110.5</v>
       </c>
       <c r="K98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3899,7 +3979,7 @@
         <v>17</v>
       </c>
       <c r="D99">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -3911,19 +3991,19 @@
         <v>50</v>
       </c>
       <c r="H99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J99">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="K99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3934,7 +4014,7 @@
         <v>17</v>
       </c>
       <c r="D100">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -3946,19 +4026,19 @@
         <v>50</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J100">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="K100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3969,10 +4049,10 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3995,19 +4075,19 @@
         <v>60</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>110.5</v>
       </c>
       <c r="K102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4030,19 +4110,19 @@
         <v>60</v>
       </c>
       <c r="H103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>110.5</v>
       </c>
       <c r="K103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4065,19 +4145,19 @@
         <v>60</v>
       </c>
       <c r="H104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>110.5</v>
       </c>
       <c r="K104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4100,19 +4180,19 @@
         <v>60</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4123,7 +4203,7 @@
         <v>17</v>
       </c>
       <c r="D106">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -4135,19 +4215,19 @@
         <v>30</v>
       </c>
       <c r="H106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J106">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="K106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4158,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="D107">
-        <v>48.40000000000001</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="E107" t="s">
         <v>16</v>
@@ -4170,19 +4250,19 @@
         <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J107">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="K107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4193,10 +4273,10 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4219,19 +4299,19 @@
         <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>125.5</v>
       </c>
       <c r="K109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4254,19 +4334,19 @@
         <v>75</v>
       </c>
       <c r="H110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J110">
         <v>125.5</v>
       </c>
       <c r="K110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4289,19 +4369,19 @@
         <v>75</v>
       </c>
       <c r="H111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J111">
         <v>125.5</v>
       </c>
       <c r="K111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4324,19 +4404,19 @@
         <v>75</v>
       </c>
       <c r="H112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>125.5</v>
       </c>
       <c r="K112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4347,7 +4427,7 @@
         <v>17</v>
       </c>
       <c r="D113">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -4359,19 +4439,19 @@
         <v>62.5</v>
       </c>
       <c r="H113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J113">
         <v>102.9</v>
       </c>
       <c r="K113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4382,7 +4462,7 @@
         <v>17</v>
       </c>
       <c r="D114">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -4394,19 +4474,19 @@
         <v>37.5</v>
       </c>
       <c r="H114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J114">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="K114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4417,10 +4497,10 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4443,19 +4523,19 @@
         <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>138</v>
       </c>
       <c r="K116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4478,19 +4558,19 @@
         <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J117">
         <v>138</v>
       </c>
       <c r="K117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4513,19 +4593,19 @@
         <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>288</v>
       </c>
       <c r="K118" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4548,19 +4628,19 @@
         <v>75</v>
       </c>
       <c r="H119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>138</v>
       </c>
       <c r="K119" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4583,19 +4663,19 @@
         <v>75</v>
       </c>
       <c r="H120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>288</v>
       </c>
       <c r="K120" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4606,7 +4686,7 @@
         <v>17</v>
       </c>
       <c r="D121">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -4618,19 +4698,19 @@
         <v>62.5</v>
       </c>
       <c r="H121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>102.9</v>
       </c>
       <c r="K121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4641,7 +4721,7 @@
         <v>17</v>
       </c>
       <c r="D122">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -4653,19 +4733,19 @@
         <v>37.5</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J122">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="K122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4676,10 +4756,10 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4702,19 +4782,19 @@
         <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J124">
         <v>125.5</v>
       </c>
       <c r="K124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4737,19 +4817,19 @@
         <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J125">
         <v>138</v>
       </c>
       <c r="K125" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4772,19 +4852,19 @@
         <v>75</v>
       </c>
       <c r="H126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J126">
         <v>138</v>
       </c>
       <c r="K126" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4807,19 +4887,19 @@
         <v>75</v>
       </c>
       <c r="H127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I127" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J127">
         <v>138</v>
       </c>
       <c r="K127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4842,19 +4922,19 @@
         <v>75</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I128" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J128">
         <v>138</v>
       </c>
       <c r="K128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4865,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="D129">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
@@ -4877,19 +4957,19 @@
         <v>62.5</v>
       </c>
       <c r="H129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J129">
         <v>102.9</v>
       </c>
       <c r="K129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4900,7 +4980,7 @@
         <v>17</v>
       </c>
       <c r="D130">
-        <v>48.40000000000001</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -4912,19 +4992,19 @@
         <v>37.5</v>
       </c>
       <c r="H130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J130">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="K130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4935,10 +5015,10 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4961,19 +5041,19 @@
         <v>75</v>
       </c>
       <c r="H132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>138</v>
       </c>
       <c r="K132" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4996,19 +5076,19 @@
         <v>75</v>
       </c>
       <c r="H133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>138</v>
       </c>
       <c r="K133" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5019,7 +5099,7 @@
         <v>17</v>
       </c>
       <c r="D134">
-        <v>48.40000000000001</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5031,19 +5111,19 @@
         <v>62.5</v>
       </c>
       <c r="H134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>110.9</v>
       </c>
       <c r="K134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5054,7 +5134,7 @@
         <v>17</v>
       </c>
       <c r="D135">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -5066,19 +5146,19 @@
         <v>37.5</v>
       </c>
       <c r="H135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J135">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="K135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5089,10 +5169,10 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5115,19 +5195,19 @@
         <v>75</v>
       </c>
       <c r="H137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>138</v>
       </c>
       <c r="K137" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5150,19 +5230,19 @@
         <v>75</v>
       </c>
       <c r="H138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>288</v>
       </c>
       <c r="K138" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5185,19 +5265,19 @@
         <v>75</v>
       </c>
       <c r="H139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>138</v>
       </c>
       <c r="K139" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5220,19 +5300,19 @@
         <v>75</v>
       </c>
       <c r="H140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>288</v>
       </c>
       <c r="K140" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5243,7 +5323,7 @@
         <v>17</v>
       </c>
       <c r="D141">
-        <v>48.40000000000001</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5255,19 +5335,19 @@
         <v>62.5</v>
       </c>
       <c r="H141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>110.9</v>
       </c>
       <c r="K141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5278,7 +5358,7 @@
         <v>17</v>
       </c>
       <c r="D142">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -5290,19 +5370,19 @@
         <v>37.5</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J142">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="K142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5313,10 +5393,10 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5339,19 +5419,19 @@
         <v>72</v>
       </c>
       <c r="H144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>135</v>
       </c>
       <c r="K144" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5374,19 +5454,19 @@
         <v>72</v>
       </c>
       <c r="H145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>135</v>
       </c>
       <c r="K145" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5397,10 +5477,10 @@
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5423,19 +5503,19 @@
         <v>72</v>
       </c>
       <c r="H147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>132.5</v>
       </c>
       <c r="K147" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5458,19 +5538,19 @@
         <v>72</v>
       </c>
       <c r="H148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>285</v>
       </c>
       <c r="K148" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5493,19 +5573,19 @@
         <v>72</v>
       </c>
       <c r="H149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>132.5</v>
       </c>
       <c r="K149" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5528,19 +5608,19 @@
         <v>72</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>297.5</v>
       </c>
       <c r="K150" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5563,19 +5643,19 @@
         <v>72</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>132.5</v>
       </c>
       <c r="K151" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5598,19 +5678,19 @@
         <v>72</v>
       </c>
       <c r="H152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>297.5</v>
       </c>
       <c r="K152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5621,10 +5701,10 @@
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5647,19 +5727,19 @@
         <v>72</v>
       </c>
       <c r="H154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I154" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J154">
         <v>132.5</v>
       </c>
       <c r="K154" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5670,7 +5750,7 @@
         <v>17</v>
       </c>
       <c r="D155">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -5682,19 +5762,19 @@
         <v>60</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>110.4</v>
       </c>
       <c r="K155" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5705,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="D156">
-        <v>48.40000000000001</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
@@ -5717,19 +5797,19 @@
         <v>60</v>
       </c>
       <c r="H156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I156" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J156">
         <v>108.4</v>
       </c>
       <c r="K156" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5752,19 +5832,19 @@
         <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I157" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J157">
         <v>40.4</v>
       </c>
       <c r="K157" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5775,10 +5855,10 @@
         <v>12</v>
       </c>
       <c r="K158" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5801,19 +5881,19 @@
         <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I159" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J159">
         <v>125.5</v>
       </c>
       <c r="K159" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5836,19 +5916,19 @@
         <v>62.5</v>
       </c>
       <c r="H160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I160" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J160">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="K160" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5871,19 +5951,19 @@
         <v>37.5</v>
       </c>
       <c r="H161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I161" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J161">
-        <v>67.90000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K161" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5906,19 +5986,19 @@
         <v>62.5</v>
       </c>
       <c r="H162" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J162">
         <v>62.5</v>
       </c>
       <c r="K162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5941,19 +6021,19 @@
         <v>62.5</v>
       </c>
       <c r="H163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>62.5</v>
       </c>
       <c r="K163" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5976,19 +6056,19 @@
         <v>37.5</v>
       </c>
       <c r="H164" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J164">
         <v>37.5</v>
       </c>
       <c r="K164" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5999,10 +6079,10 @@
         <v>22</v>
       </c>
       <c r="K165" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6025,19 +6105,19 @@
         <v>37.5</v>
       </c>
       <c r="H166" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I166" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J166">
         <v>37.5</v>
       </c>
       <c r="K166" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6048,10 +6128,10 @@
         <v>22</v>
       </c>
       <c r="K167" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6074,19 +6154,19 @@
         <v>75</v>
       </c>
       <c r="H168" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I168" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J168">
         <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6109,19 +6189,19 @@
         <v>62.5</v>
       </c>
       <c r="H169" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I169" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J169">
         <v>62.5</v>
       </c>
       <c r="K169" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6144,19 +6224,19 @@
         <v>62.5</v>
       </c>
       <c r="H170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I170" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J170">
         <v>62.5</v>
       </c>
       <c r="K170" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6167,10 +6247,10 @@
         <v>22</v>
       </c>
       <c r="K171" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6193,19 +6273,19 @@
         <v>45</v>
       </c>
       <c r="H172" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J172">
         <v>70.5</v>
       </c>
       <c r="K172" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6228,19 +6308,19 @@
         <v>45</v>
       </c>
       <c r="H173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I173" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J173">
         <v>70.5</v>
       </c>
       <c r="K173" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6263,19 +6343,19 @@
         <v>45</v>
       </c>
       <c r="H174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J174">
         <v>70.5</v>
       </c>
       <c r="K174" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6298,19 +6378,19 @@
         <v>45</v>
       </c>
       <c r="H175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J175">
         <v>70.5</v>
       </c>
       <c r="K175" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6333,19 +6413,19 @@
         <v>45</v>
       </c>
       <c r="H176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J176">
         <v>70.5</v>
       </c>
       <c r="K176" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6356,7 +6436,7 @@
         <v>23</v>
       </c>
       <c r="D177">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E177" t="s">
         <v>17</v>
@@ -6368,19 +6448,19 @@
         <v>37.5</v>
       </c>
       <c r="H177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J177">
-        <v>57.90000000000001</v>
+        <v>57.900000000000013</v>
       </c>
       <c r="K177" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6391,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="D178">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E178" t="s">
         <v>17</v>
@@ -6403,19 +6483,19 @@
         <v>37.5</v>
       </c>
       <c r="H178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J178">
-        <v>57.90000000000001</v>
+        <v>57.900000000000013</v>
       </c>
       <c r="K178" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6426,10 +6506,10 @@
         <v>22</v>
       </c>
       <c r="K179" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6440,10 +6520,10 @@
         <v>17</v>
       </c>
       <c r="K180" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6466,19 +6546,19 @@
         <v>50</v>
       </c>
       <c r="H181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>50</v>
       </c>
       <c r="K181" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6501,19 +6581,19 @@
         <v>50</v>
       </c>
       <c r="H182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>50</v>
       </c>
       <c r="K182" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6524,10 +6604,10 @@
         <v>22</v>
       </c>
       <c r="K183" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6550,19 +6630,19 @@
         <v>75</v>
       </c>
       <c r="H184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I184" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J184">
         <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6585,19 +6665,19 @@
         <v>75</v>
       </c>
       <c r="H185" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I185" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J185">
         <v>138</v>
       </c>
       <c r="K185" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6620,19 +6700,19 @@
         <v>37.5</v>
       </c>
       <c r="H186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I186" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J186">
         <v>37.5</v>
       </c>
       <c r="K186" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6655,19 +6735,19 @@
         <v>37.5</v>
       </c>
       <c r="H187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I187" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J187">
         <v>37.5</v>
       </c>
       <c r="K187" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6690,19 +6770,19 @@
         <v>75</v>
       </c>
       <c r="H188" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I188" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J188">
         <v>88</v>
       </c>
       <c r="K188" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6725,19 +6805,19 @@
         <v>75</v>
       </c>
       <c r="H189" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I189" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J189">
         <v>88</v>
       </c>
       <c r="K189" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6760,19 +6840,19 @@
         <v>75</v>
       </c>
       <c r="H190" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I190" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J190">
         <v>138</v>
       </c>
       <c r="K190" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6795,19 +6875,19 @@
         <v>75</v>
       </c>
       <c r="H191" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I191" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J191">
         <v>138</v>
       </c>
       <c r="K191" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6830,19 +6910,19 @@
         <v>75</v>
       </c>
       <c r="H192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I192" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J192">
         <v>200.5</v>
       </c>
       <c r="K192" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6865,19 +6945,19 @@
         <v>62.5</v>
       </c>
       <c r="H193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I193" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J193">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K193" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6900,19 +6980,19 @@
         <v>37.5</v>
       </c>
       <c r="H194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I194" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J194">
         <v>47.9</v>
       </c>
       <c r="K194" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6935,19 +7015,19 @@
         <v>75</v>
       </c>
       <c r="H195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I195" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J195">
         <v>138</v>
       </c>
       <c r="K195" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6970,19 +7050,19 @@
         <v>75</v>
       </c>
       <c r="H196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I196" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J196">
         <v>313</v>
       </c>
       <c r="K196" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7005,19 +7085,19 @@
         <v>75</v>
       </c>
       <c r="H197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I197" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J197">
         <v>138</v>
       </c>
       <c r="K197" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7040,19 +7120,19 @@
         <v>75</v>
       </c>
       <c r="H198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I198" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J198">
         <v>313</v>
       </c>
       <c r="K198" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7075,19 +7155,19 @@
         <v>75</v>
       </c>
       <c r="H199" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I199" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J199">
         <v>138</v>
       </c>
       <c r="K199" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7110,19 +7190,19 @@
         <v>62.5</v>
       </c>
       <c r="H200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I200" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J200">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K200" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7145,19 +7225,19 @@
         <v>37.5</v>
       </c>
       <c r="H201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I201" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J201">
         <v>47.9</v>
       </c>
       <c r="K201" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7168,10 +7248,10 @@
         <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7182,10 +7262,10 @@
         <v>17</v>
       </c>
       <c r="K203" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7196,10 +7276,10 @@
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7210,10 +7290,10 @@
         <v>17</v>
       </c>
       <c r="K205" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7224,10 +7304,10 @@
         <v>17</v>
       </c>
       <c r="K206" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7238,10 +7318,10 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7252,10 +7332,10 @@
         <v>17</v>
       </c>
       <c r="K208" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7266,10 +7346,10 @@
         <v>17</v>
       </c>
       <c r="K209" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7280,10 +7360,10 @@
         <v>17</v>
       </c>
       <c r="K210" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7294,10 +7374,10 @@
         <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7308,10 +7388,10 @@
         <v>17</v>
       </c>
       <c r="K212" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7322,10 +7402,10 @@
         <v>17</v>
       </c>
       <c r="K213" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7336,10 +7416,10 @@
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7362,19 +7442,19 @@
         <v>60</v>
       </c>
       <c r="H215" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I215" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J215">
         <v>60</v>
       </c>
       <c r="K215" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7397,19 +7477,19 @@
         <v>60</v>
       </c>
       <c r="H216" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I216" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J216">
         <v>60</v>
       </c>
       <c r="K216" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7432,19 +7512,19 @@
         <v>60</v>
       </c>
       <c r="H217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I217" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J217">
         <v>60</v>
       </c>
       <c r="K217" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7467,19 +7547,19 @@
         <v>60</v>
       </c>
       <c r="H218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I218" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J218">
         <v>60</v>
       </c>
       <c r="K218" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7502,19 +7582,19 @@
         <v>60</v>
       </c>
       <c r="H219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I219" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J219">
         <v>60</v>
       </c>
       <c r="K219" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7537,19 +7617,19 @@
         <v>60</v>
       </c>
       <c r="H220" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I220" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J220">
         <v>110.5</v>
       </c>
       <c r="K220" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7572,19 +7652,19 @@
         <v>60</v>
       </c>
       <c r="H221" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I221" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J221">
         <v>110.5</v>
       </c>
       <c r="K221" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7607,19 +7687,19 @@
         <v>50</v>
       </c>
       <c r="H222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J222">
         <v>50</v>
       </c>
       <c r="K222" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7642,19 +7722,19 @@
         <v>30</v>
       </c>
       <c r="H223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I223" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J223">
         <v>30</v>
       </c>
       <c r="K223" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7665,10 +7745,10 @@
         <v>17</v>
       </c>
       <c r="K224" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7691,19 +7771,19 @@
         <v>60</v>
       </c>
       <c r="H225" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I225" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J225">
         <v>110.5</v>
       </c>
       <c r="K225" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7726,19 +7806,19 @@
         <v>60</v>
       </c>
       <c r="H226" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I226" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J226">
         <v>110.5</v>
       </c>
       <c r="K226" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7761,19 +7841,19 @@
         <v>60</v>
       </c>
       <c r="H227" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I227" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J227">
         <v>110.5</v>
       </c>
       <c r="K227" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7796,19 +7876,19 @@
         <v>60</v>
       </c>
       <c r="H228" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I228" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J228">
         <v>110.5</v>
       </c>
       <c r="K228" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7831,19 +7911,19 @@
         <v>60</v>
       </c>
       <c r="H229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I229" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J229">
         <v>110.5</v>
       </c>
       <c r="K229" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7866,19 +7946,19 @@
         <v>60</v>
       </c>
       <c r="H230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I230" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J230">
         <v>110.5</v>
       </c>
       <c r="K230" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7901,19 +7981,19 @@
         <v>50</v>
       </c>
       <c r="H231" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J231">
         <v>60.4</v>
       </c>
       <c r="K231" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7936,19 +8016,19 @@
         <v>45</v>
       </c>
       <c r="H232" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I232" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J232">
         <v>133</v>
       </c>
       <c r="K232" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7971,19 +8051,19 @@
         <v>45</v>
       </c>
       <c r="H233" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I233" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J233">
         <v>83</v>
       </c>
       <c r="K233" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8006,19 +8086,19 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I234" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J234">
         <v>83</v>
       </c>
       <c r="K234" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8041,19 +8121,19 @@
         <v>45</v>
       </c>
       <c r="H235" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I235" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J235">
         <v>83</v>
       </c>
       <c r="K235" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8076,19 +8156,19 @@
         <v>22.5</v>
       </c>
       <c r="H236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J236">
-        <v>52.90000000000001</v>
+        <v>52.900000000000013</v>
       </c>
       <c r="K236" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8111,19 +8191,19 @@
         <v>22.5</v>
       </c>
       <c r="H237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I237" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J237">
-        <v>52.90000000000001</v>
+        <v>52.900000000000013</v>
       </c>
       <c r="K237" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8146,19 +8226,19 @@
         <v>45</v>
       </c>
       <c r="H238" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I238" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J238">
         <v>83</v>
       </c>
       <c r="K238" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8169,10 +8249,10 @@
         <v>22</v>
       </c>
       <c r="K239" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8183,7 +8263,7 @@
         <v>14</v>
       </c>
       <c r="D240">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
@@ -8195,19 +8275,19 @@
         <v>37.5</v>
       </c>
       <c r="H240" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I240" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J240">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="K240" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8218,7 +8298,7 @@
         <v>14</v>
       </c>
       <c r="D241">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
@@ -8230,19 +8310,19 @@
         <v>37.5</v>
       </c>
       <c r="H241" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I241" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J241">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="K241" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8265,19 +8345,19 @@
         <v>50</v>
       </c>
       <c r="H242" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I242" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J242">
         <v>50</v>
       </c>
       <c r="K242" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8300,19 +8380,19 @@
         <v>50</v>
       </c>
       <c r="H243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I243" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J243">
         <v>50</v>
       </c>
       <c r="K243" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8323,10 +8403,10 @@
         <v>22</v>
       </c>
       <c r="K244" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8349,19 +8429,19 @@
         <v>75</v>
       </c>
       <c r="H245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I245" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J245">
         <v>138</v>
       </c>
       <c r="K245" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8384,19 +8464,19 @@
         <v>75</v>
       </c>
       <c r="H246" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I246" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J246">
         <v>138</v>
       </c>
       <c r="K246" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8407,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="D247">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E247" t="s">
         <v>17</v>
@@ -8419,19 +8499,19 @@
         <v>37.5</v>
       </c>
       <c r="H247" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I247" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J247">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="K247" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8442,7 +8522,7 @@
         <v>14</v>
       </c>
       <c r="D248">
-        <v>50.40000000000001</v>
+        <v>50.400000000000013</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -8454,19 +8534,19 @@
         <v>37.5</v>
       </c>
       <c r="H248" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I248" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J248">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="K248" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8477,10 +8557,10 @@
         <v>17</v>
       </c>
       <c r="K249" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8503,19 +8583,19 @@
         <v>60</v>
       </c>
       <c r="H250" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I250" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J250">
         <v>60</v>
       </c>
       <c r="K250" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8538,19 +8618,19 @@
         <v>60</v>
       </c>
       <c r="H251" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I251" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J251">
         <v>110.5</v>
       </c>
       <c r="K251" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8573,19 +8653,19 @@
         <v>60</v>
       </c>
       <c r="H252" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I252" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J252">
         <v>110.5</v>
       </c>
       <c r="K252" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8608,19 +8688,19 @@
         <v>60</v>
       </c>
       <c r="H253" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I253" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J253">
         <v>110.5</v>
       </c>
       <c r="K253" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8643,19 +8723,19 @@
         <v>60</v>
       </c>
       <c r="H254" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I254" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J254">
         <v>110.5</v>
       </c>
       <c r="K254" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8678,19 +8758,19 @@
         <v>60</v>
       </c>
       <c r="H255" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I255" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J255">
         <v>110.5</v>
       </c>
       <c r="K255" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8713,19 +8793,19 @@
         <v>60</v>
       </c>
       <c r="H256" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I256" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J256">
         <v>110.5</v>
       </c>
       <c r="K256" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8748,19 +8828,19 @@
         <v>60</v>
       </c>
       <c r="H257" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I257" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J257">
         <v>110.5</v>
       </c>
       <c r="K257" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8783,19 +8863,19 @@
         <v>60</v>
       </c>
       <c r="H258" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I258" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J258">
         <v>110.5</v>
       </c>
       <c r="K258" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8818,19 +8898,19 @@
         <v>50</v>
       </c>
       <c r="H259" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I259" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J259">
         <v>50</v>
       </c>
       <c r="K259" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8853,19 +8933,19 @@
         <v>50</v>
       </c>
       <c r="H260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I260" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J260">
         <v>50</v>
       </c>
       <c r="K260" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8876,10 +8956,10 @@
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8902,19 +8982,19 @@
         <v>60</v>
       </c>
       <c r="H262" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I262" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J262">
         <v>110.5</v>
       </c>
       <c r="K262" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8937,19 +9017,19 @@
         <v>60</v>
       </c>
       <c r="H263" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J263">
         <v>110.5</v>
       </c>
       <c r="K263" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8972,19 +9052,19 @@
         <v>60</v>
       </c>
       <c r="H264" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I264" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J264">
         <v>110.5</v>
       </c>
       <c r="K264" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9007,19 +9087,19 @@
         <v>60</v>
       </c>
       <c r="H265" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I265" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J265">
         <v>110.5</v>
       </c>
       <c r="K265" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9042,19 +9122,19 @@
         <v>60</v>
       </c>
       <c r="H266" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I266" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J266">
         <v>110.5</v>
       </c>
       <c r="K266" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9077,19 +9157,19 @@
         <v>60</v>
       </c>
       <c r="H267" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I267" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J267">
         <v>110.5</v>
       </c>
       <c r="K267" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9112,19 +9192,19 @@
         <v>60</v>
       </c>
       <c r="H268" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I268" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J268">
         <v>110.5</v>
       </c>
       <c r="K268" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9147,19 +9227,19 @@
         <v>50</v>
       </c>
       <c r="H269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I269" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J269">
         <v>50</v>
       </c>
       <c r="K269" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9182,19 +9262,19 @@
         <v>50</v>
       </c>
       <c r="H270" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I270" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J270">
         <v>50</v>
       </c>
       <c r="K270" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9205,10 +9285,10 @@
         <v>17</v>
       </c>
       <c r="K271" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9231,19 +9311,19 @@
         <v>60</v>
       </c>
       <c r="H272" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I272" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J272">
         <v>110.5</v>
       </c>
       <c r="K272" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9266,19 +9346,19 @@
         <v>60</v>
       </c>
       <c r="H273" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I273" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J273">
         <v>110.5</v>
       </c>
       <c r="K273" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9301,19 +9381,19 @@
         <v>60</v>
       </c>
       <c r="H274" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I274" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J274">
         <v>110.5</v>
       </c>
       <c r="K274" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9336,19 +9416,19 @@
         <v>60</v>
       </c>
       <c r="H275" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I275" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J275">
         <v>110.5</v>
       </c>
       <c r="K275" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9371,19 +9451,19 @@
         <v>60</v>
       </c>
       <c r="H276" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I276" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J276">
         <v>110.5</v>
       </c>
       <c r="K276" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9406,19 +9486,19 @@
         <v>60</v>
       </c>
       <c r="H277" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I277" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J277">
         <v>110.5</v>
       </c>
       <c r="K277" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9441,19 +9521,19 @@
         <v>60</v>
       </c>
       <c r="H278" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I278" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J278">
         <v>110.5</v>
       </c>
       <c r="K278" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9476,19 +9556,19 @@
         <v>60</v>
       </c>
       <c r="H279" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I279" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J279">
         <v>110.5</v>
       </c>
       <c r="K279" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -9511,19 +9591,19 @@
         <v>60</v>
       </c>
       <c r="H280" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I280" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J280">
         <v>110.5</v>
       </c>
       <c r="K280" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -9546,19 +9626,19 @@
         <v>60</v>
       </c>
       <c r="H281" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I281" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J281">
         <v>110.5</v>
       </c>
       <c r="K281" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -9581,19 +9661,19 @@
         <v>50</v>
       </c>
       <c r="H282" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I282" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J282">
         <v>50</v>
       </c>
       <c r="K282" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -9616,19 +9696,19 @@
         <v>30</v>
       </c>
       <c r="H283" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I283" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J283">
         <v>30</v>
       </c>
       <c r="K283" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -9639,10 +9719,10 @@
         <v>17</v>
       </c>
       <c r="K284" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -9665,19 +9745,19 @@
         <v>60</v>
       </c>
       <c r="H285" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I285" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J285">
         <v>110.5</v>
       </c>
       <c r="K285" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -9700,19 +9780,19 @@
         <v>60</v>
       </c>
       <c r="H286" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I286" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J286">
         <v>110.5</v>
       </c>
       <c r="K286" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9735,19 +9815,19 @@
         <v>60</v>
       </c>
       <c r="H287" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I287" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J287">
         <v>110.5</v>
       </c>
       <c r="K287" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9770,19 +9850,19 @@
         <v>60</v>
       </c>
       <c r="H288" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I288" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J288">
         <v>110.5</v>
       </c>
       <c r="K288" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9805,19 +9885,19 @@
         <v>60</v>
       </c>
       <c r="H289" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I289" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J289">
         <v>110.5</v>
       </c>
       <c r="K289" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9840,19 +9920,19 @@
         <v>60</v>
       </c>
       <c r="H290" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I290" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J290">
         <v>110.5</v>
       </c>
       <c r="K290" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9875,19 +9955,19 @@
         <v>60</v>
       </c>
       <c r="H291" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I291" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J291">
         <v>110.5</v>
       </c>
       <c r="K291" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9910,19 +9990,19 @@
         <v>60</v>
       </c>
       <c r="H292" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I292" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J292">
         <v>110.5</v>
       </c>
       <c r="K292" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9945,19 +10025,19 @@
         <v>60</v>
       </c>
       <c r="H293" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I293" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J293">
         <v>110.5</v>
       </c>
       <c r="K293" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9980,19 +10060,19 @@
         <v>60</v>
       </c>
       <c r="H294" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I294" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J294">
         <v>110.5</v>
       </c>
       <c r="K294" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -10015,19 +10095,19 @@
         <v>50</v>
       </c>
       <c r="H295" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I295" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J295">
         <v>50</v>
       </c>
       <c r="K295" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -10050,19 +10130,19 @@
         <v>30</v>
       </c>
       <c r="H296" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I296" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J296">
         <v>30</v>
       </c>
       <c r="K296" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -10073,10 +10153,10 @@
         <v>17</v>
       </c>
       <c r="K297" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -10099,19 +10179,19 @@
         <v>60</v>
       </c>
       <c r="H298" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I298" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J298">
         <v>110.5</v>
       </c>
       <c r="K298" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -10134,19 +10214,19 @@
         <v>60</v>
       </c>
       <c r="H299" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I299" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J299">
         <v>110.5</v>
       </c>
       <c r="K299" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10169,19 +10249,19 @@
         <v>60</v>
       </c>
       <c r="H300" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I300" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J300">
         <v>110.5</v>
       </c>
       <c r="K300" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -10192,7 +10272,7 @@
         <v>17</v>
       </c>
       <c r="D301">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E301" t="s">
         <v>16</v>
@@ -10204,19 +10284,19 @@
         <v>50</v>
       </c>
       <c r="H301" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I301" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J301">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="K301" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -10239,19 +10319,19 @@
         <v>30</v>
       </c>
       <c r="H302" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I302" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J302">
         <v>30</v>
       </c>
       <c r="K302" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -10262,10 +10342,10 @@
         <v>17</v>
       </c>
       <c r="K303" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -10288,19 +10368,19 @@
         <v>75</v>
       </c>
       <c r="H304" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I304" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J304">
         <v>125.5</v>
       </c>
       <c r="K304" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -10323,19 +10403,19 @@
         <v>75</v>
       </c>
       <c r="H305" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I305" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J305">
         <v>125.5</v>
       </c>
       <c r="K305" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -10358,19 +10438,19 @@
         <v>75</v>
       </c>
       <c r="H306" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I306" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J306">
         <v>125.5</v>
       </c>
       <c r="K306" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -10381,7 +10461,7 @@
         <v>17</v>
       </c>
       <c r="D307">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
@@ -10393,19 +10473,19 @@
         <v>62.5</v>
       </c>
       <c r="H307" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I307" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J307">
         <v>102.9</v>
       </c>
       <c r="K307" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -10428,19 +10508,19 @@
         <v>37.5</v>
       </c>
       <c r="H308" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I308" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J308">
         <v>37.5</v>
       </c>
       <c r="K308" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -10451,10 +10531,10 @@
         <v>17</v>
       </c>
       <c r="K309" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -10477,19 +10557,19 @@
         <v>75</v>
       </c>
       <c r="H310" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I310" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J310">
         <v>125.5</v>
       </c>
       <c r="K310" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -10512,19 +10592,19 @@
         <v>75</v>
       </c>
       <c r="H311" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I311" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J311">
         <v>135.5</v>
       </c>
       <c r="K311" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -10547,19 +10627,19 @@
         <v>75</v>
       </c>
       <c r="H312" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I312" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J312">
         <v>135.5</v>
       </c>
       <c r="K312" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -10570,7 +10650,7 @@
         <v>17</v>
       </c>
       <c r="D313">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
@@ -10582,19 +10662,19 @@
         <v>62.5</v>
       </c>
       <c r="H313" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I313" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J313">
         <v>102.9</v>
       </c>
       <c r="K313" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -10605,7 +10685,7 @@
         <v>17</v>
       </c>
       <c r="D314">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
@@ -10617,19 +10697,19 @@
         <v>37.5</v>
       </c>
       <c r="H314" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I314" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J314">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="K314" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -10652,19 +10732,19 @@
         <v>37.5</v>
       </c>
       <c r="H315" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I315" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J315">
         <v>47.9</v>
       </c>
       <c r="K315" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -10687,19 +10767,19 @@
         <v>37.5</v>
       </c>
       <c r="H316" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I316" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J316">
         <v>47.9</v>
       </c>
       <c r="K316" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -10710,10 +10790,10 @@
         <v>22</v>
       </c>
       <c r="K317" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -10736,19 +10816,19 @@
         <v>62.5</v>
       </c>
       <c r="H318" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I318" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J318">
         <v>62.5</v>
       </c>
       <c r="K318" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -10759,10 +10839,10 @@
         <v>22</v>
       </c>
       <c r="K319" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -10785,19 +10865,19 @@
         <v>75</v>
       </c>
       <c r="H320" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I320" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J320">
         <v>75</v>
       </c>
       <c r="K320" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -10808,10 +10888,10 @@
         <v>22</v>
       </c>
       <c r="K321" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -10834,19 +10914,19 @@
         <v>105</v>
       </c>
       <c r="H322" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I322" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J322">
         <v>193</v>
       </c>
       <c r="K322" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -10869,19 +10949,19 @@
         <v>105</v>
       </c>
       <c r="H323" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I323" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J323">
         <v>193</v>
       </c>
       <c r="K323" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -10904,19 +10984,19 @@
         <v>105</v>
       </c>
       <c r="H324" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I324" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J324">
         <v>193</v>
       </c>
       <c r="K324" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -10939,19 +11019,19 @@
         <v>105</v>
       </c>
       <c r="H325" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I325" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J325">
         <v>193</v>
       </c>
       <c r="K325" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -10962,7 +11042,7 @@
         <v>22</v>
       </c>
       <c r="D326">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E326" t="s">
         <v>17</v>
@@ -10974,19 +11054,19 @@
         <v>87.5</v>
       </c>
       <c r="H326" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I326" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J326">
         <v>157.9</v>
       </c>
       <c r="K326" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -10997,7 +11077,7 @@
         <v>22</v>
       </c>
       <c r="D327">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E327" t="s">
         <v>17</v>
@@ -11009,19 +11089,19 @@
         <v>52.5</v>
       </c>
       <c r="H327" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I327" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J327">
         <v>122.9</v>
       </c>
       <c r="K327" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -11044,19 +11124,19 @@
         <v>57</v>
       </c>
       <c r="H328" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I328" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J328">
         <v>107.5</v>
       </c>
       <c r="K328" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -11079,19 +11159,19 @@
         <v>57</v>
       </c>
       <c r="H329" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I329" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J329">
         <v>117.5</v>
       </c>
       <c r="K329" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -11114,19 +11194,19 @@
         <v>57</v>
       </c>
       <c r="H330" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I330" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J330">
         <v>117.5</v>
       </c>
       <c r="K330" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -11149,19 +11229,19 @@
         <v>57</v>
       </c>
       <c r="H331" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I331" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J331">
         <v>117.5</v>
       </c>
       <c r="K331" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -11184,19 +11264,19 @@
         <v>47.5</v>
       </c>
       <c r="H332" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I332" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J332">
         <v>47.5</v>
       </c>
       <c r="K332" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -11207,7 +11287,7 @@
         <v>17</v>
       </c>
       <c r="D333">
-        <v>40.40000000000001</v>
+        <v>40.400000000000013</v>
       </c>
       <c r="E333" t="s">
         <v>20</v>
@@ -11219,19 +11299,19 @@
         <v>28.5</v>
       </c>
       <c r="H333" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I333" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J333">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="K333" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -11254,19 +11334,19 @@
         <v>105</v>
       </c>
       <c r="H334" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I334" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J334">
         <v>193</v>
       </c>
       <c r="K334" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -11289,19 +11369,19 @@
         <v>105</v>
       </c>
       <c r="H335" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I335" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J335">
         <v>193</v>
       </c>
       <c r="K335" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -11324,19 +11404,19 @@
         <v>105</v>
       </c>
       <c r="H336" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I336" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J336">
         <v>193</v>
       </c>
       <c r="K336" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -11359,19 +11439,19 @@
         <v>105</v>
       </c>
       <c r="H337" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I337" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J337">
         <v>193</v>
       </c>
       <c r="K337" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -11394,19 +11474,19 @@
         <v>105</v>
       </c>
       <c r="H338" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I338" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J338">
         <v>193</v>
       </c>
       <c r="K338" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -11417,7 +11497,7 @@
         <v>22</v>
       </c>
       <c r="D339">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E339" t="s">
         <v>17</v>
@@ -11429,19 +11509,19 @@
         <v>87.5</v>
       </c>
       <c r="H339" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I339" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J339">
         <v>157.9</v>
       </c>
       <c r="K339" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -11464,19 +11544,19 @@
         <v>57</v>
       </c>
       <c r="H340" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I340" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J340">
         <v>105</v>
       </c>
       <c r="K340" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -11499,19 +11579,19 @@
         <v>57</v>
       </c>
       <c r="H341" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I341" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J341">
         <v>105</v>
       </c>
       <c r="K341" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -11534,19 +11614,19 @@
         <v>57</v>
       </c>
       <c r="H342" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I342" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J342">
         <v>105</v>
       </c>
       <c r="K342" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -11569,19 +11649,19 @@
         <v>57</v>
       </c>
       <c r="H343" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I343" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J343">
         <v>105</v>
       </c>
       <c r="K343" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -11604,19 +11684,19 @@
         <v>57</v>
       </c>
       <c r="H344" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I344" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J344">
         <v>120</v>
       </c>
       <c r="K344" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -11627,7 +11707,7 @@
         <v>17</v>
       </c>
       <c r="D345">
-        <v>38.40000000000001</v>
+        <v>38.400000000000013</v>
       </c>
       <c r="E345" t="s">
         <v>20</v>
@@ -11639,19 +11719,19 @@
         <v>47.5</v>
       </c>
       <c r="H345" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I345" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J345">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="K345" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -11674,19 +11754,19 @@
         <v>105</v>
       </c>
       <c r="H346" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I346" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J346">
         <v>193</v>
       </c>
       <c r="K346" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -11709,19 +11789,19 @@
         <v>105</v>
       </c>
       <c r="H347" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I347" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J347">
         <v>193</v>
       </c>
       <c r="K347" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -11744,19 +11824,19 @@
         <v>105</v>
       </c>
       <c r="H348" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I348" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J348">
         <v>193</v>
       </c>
       <c r="K348" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -11779,19 +11859,19 @@
         <v>105</v>
       </c>
       <c r="H349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I349" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J349">
         <v>193</v>
       </c>
       <c r="K349" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -11814,19 +11894,19 @@
         <v>105</v>
       </c>
       <c r="H350" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I350" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J350">
         <v>193</v>
       </c>
       <c r="K350" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -11837,7 +11917,7 @@
         <v>22</v>
       </c>
       <c r="D351">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E351" t="s">
         <v>17</v>
@@ -11849,19 +11929,19 @@
         <v>87.5</v>
       </c>
       <c r="H351" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I351" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J351">
         <v>157.9</v>
       </c>
       <c r="K351" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -11884,19 +11964,19 @@
         <v>57</v>
       </c>
       <c r="H352" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I352" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J352">
         <v>105</v>
       </c>
       <c r="K352" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -11919,19 +11999,19 @@
         <v>57</v>
       </c>
       <c r="H353" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I353" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J353">
         <v>105</v>
       </c>
       <c r="K353" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -11954,19 +12034,19 @@
         <v>57</v>
       </c>
       <c r="H354" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I354" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J354">
         <v>105</v>
       </c>
       <c r="K354" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -11989,19 +12069,19 @@
         <v>57</v>
       </c>
       <c r="H355" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I355" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J355">
         <v>105</v>
       </c>
       <c r="K355" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -12024,19 +12104,19 @@
         <v>57</v>
       </c>
       <c r="H356" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I356" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J356">
         <v>105</v>
       </c>
       <c r="K356" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -12047,7 +12127,7 @@
         <v>17</v>
       </c>
       <c r="D357">
-        <v>38.40000000000001</v>
+        <v>38.400000000000013</v>
       </c>
       <c r="E357" t="s">
         <v>20</v>
@@ -12059,19 +12139,19 @@
         <v>47.5</v>
       </c>
       <c r="H357" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I357" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J357">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="K357" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12094,19 +12174,19 @@
         <v>117</v>
       </c>
       <c r="H358" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I358" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J358">
         <v>167.5</v>
       </c>
       <c r="K358" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12129,19 +12209,19 @@
         <v>97.5</v>
       </c>
       <c r="H359" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I359" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J359">
         <v>107.9</v>
       </c>
       <c r="K359" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12164,19 +12244,324 @@
         <v>58.5</v>
       </c>
       <c r="H360" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I360" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J360">
         <v>58.5</v>
       </c>
       <c r="K360" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>20</v>
+      </c>
+      <c r="C361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361">
+        <v>13</v>
+      </c>
+      <c r="E361" t="s">
+        <v>17</v>
+      </c>
+      <c r="F361">
+        <v>292</v>
+      </c>
+      <c r="G361">
+        <v>72</v>
+      </c>
+      <c r="H361" t="s">
+        <v>26</v>
+      </c>
+      <c r="I361" t="s">
+        <v>77</v>
+      </c>
+      <c r="J361">
+        <v>85</v>
+      </c>
+      <c r="K361" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>20</v>
+      </c>
+      <c r="C362" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362">
+        <v>13</v>
+      </c>
+      <c r="E362" t="s">
+        <v>17</v>
+      </c>
+      <c r="F362">
+        <v>292</v>
+      </c>
+      <c r="G362">
+        <v>72</v>
+      </c>
+      <c r="H362" t="s">
+        <v>27</v>
+      </c>
+      <c r="I362" t="s">
+        <v>77</v>
+      </c>
+      <c r="J362">
+        <v>85</v>
+      </c>
+      <c r="K362" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>20</v>
+      </c>
+      <c r="C363" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363">
+        <v>13</v>
+      </c>
+      <c r="E363" t="s">
+        <v>17</v>
+      </c>
+      <c r="F363">
+        <v>292</v>
+      </c>
+      <c r="G363">
+        <v>72</v>
+      </c>
+      <c r="H363" t="s">
+        <v>28</v>
+      </c>
+      <c r="I363" t="s">
+        <v>77</v>
+      </c>
+      <c r="J363">
+        <v>85</v>
+      </c>
+      <c r="K363" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="C364" t="s">
+        <v>17</v>
+      </c>
+      <c r="E364" t="s">
+        <v>22</v>
+      </c>
+      <c r="K364" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="C365" t="s">
+        <v>22</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+      <c r="I365" t="s">
+        <v>77</v>
+      </c>
+      <c r="K365" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" t="s">
+        <v>15</v>
+      </c>
+      <c r="D366">
+        <v>13</v>
+      </c>
+      <c r="E366" t="s">
+        <v>17</v>
+      </c>
+      <c r="F366">
+        <v>292</v>
+      </c>
+      <c r="G366">
+        <v>72</v>
+      </c>
+      <c r="H366" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" t="s">
+        <v>113</v>
+      </c>
+      <c r="J366">
+        <v>85</v>
+      </c>
+      <c r="K366" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>20</v>
+      </c>
+      <c r="C367" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367">
+        <v>13</v>
+      </c>
+      <c r="E367" t="s">
+        <v>17</v>
+      </c>
+      <c r="F367">
+        <v>292</v>
+      </c>
+      <c r="G367">
+        <v>72</v>
+      </c>
+      <c r="H367" t="s">
+        <v>26</v>
+      </c>
+      <c r="I367" t="s">
+        <v>124</v>
+      </c>
+      <c r="J367">
+        <v>85</v>
+      </c>
+      <c r="K367" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" t="s">
+        <v>15</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>17</v>
+      </c>
+      <c r="F368">
+        <v>240</v>
+      </c>
+      <c r="G368">
+        <v>60</v>
+      </c>
+      <c r="H368" t="s">
+        <v>27</v>
+      </c>
+      <c r="I368" t="s">
+        <v>113</v>
+      </c>
+      <c r="J368">
+        <v>60</v>
+      </c>
+      <c r="K368" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>20</v>
+      </c>
+      <c r="C369" t="s">
+        <v>15</v>
+      </c>
+      <c r="D369">
+        <v>10.4</v>
+      </c>
+      <c r="E369" t="s">
+        <v>17</v>
+      </c>
+      <c r="F369">
+        <v>292</v>
+      </c>
+      <c r="G369">
+        <v>36</v>
+      </c>
+      <c r="H369" t="s">
+        <v>28</v>
+      </c>
+      <c r="I369" t="s">
+        <v>113</v>
+      </c>
+      <c r="J369">
+        <v>46.4</v>
+      </c>
+      <c r="K369" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="C370" t="s">
+        <v>17</v>
+      </c>
+      <c r="E370" t="s">
+        <v>22</v>
+      </c>
+      <c r="K370" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="C371" t="s">
+        <v>171</v>
+      </c>
+      <c r="E371" t="s">
+        <v>172</v>
+      </c>
+      <c r="K371" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/storage/history.xlsx
+++ b/storage/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="204">
   <si>
     <t>car_point</t>
   </si>
@@ -470,6 +470,21 @@
   </si>
   <si>
     <t>2019-03-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 00:00:00</t>
   </si>
   <si>
     <t>B_1</t>
@@ -968,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K467"/>
+  <dimension ref="A1:K528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1073,7 +1088,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1108,7 +1123,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1122,7 +1137,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1157,7 +1172,7 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1192,7 +1207,7 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1227,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1262,7 +1277,7 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1297,7 +1312,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1332,7 +1347,7 @@
         <v>47.9</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1367,7 +1382,7 @@
         <v>47.9</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1381,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1395,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1430,7 +1445,7 @@
         <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1465,7 +1480,7 @@
         <v>62.90000000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1500,7 +1515,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1514,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1549,7 +1564,7 @@
         <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1584,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1619,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1654,7 +1669,7 @@
         <v>37.5</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1668,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1682,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1717,7 +1732,7 @@
         <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1752,7 +1767,7 @@
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1787,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1822,7 +1837,7 @@
         <v>37.5</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,7 +1886,7 @@
         <v>37.5</v>
       </c>
       <c r="K30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1906,7 +1921,7 @@
         <v>37.5</v>
       </c>
       <c r="K31" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1920,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1934,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1948,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1983,7 +1998,7 @@
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2018,7 +2033,7 @@
         <v>132.5</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2053,7 +2068,7 @@
         <v>132.5</v>
       </c>
       <c r="K37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2088,7 +2103,7 @@
         <v>132.5</v>
       </c>
       <c r="K38" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2123,7 +2138,7 @@
         <v>132.5</v>
       </c>
       <c r="K39" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2158,7 +2173,7 @@
         <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2193,7 +2208,7 @@
         <v>132.5</v>
       </c>
       <c r="K41" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2228,7 +2243,7 @@
         <v>132.5</v>
       </c>
       <c r="K42" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2263,7 +2278,7 @@
         <v>100.4</v>
       </c>
       <c r="K43" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2298,7 +2313,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2312,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2347,7 +2362,7 @@
         <v>132.5</v>
       </c>
       <c r="K46" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2382,7 +2397,7 @@
         <v>132.5</v>
       </c>
       <c r="K47" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2417,7 +2432,7 @@
         <v>132.5</v>
       </c>
       <c r="K48" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2452,7 +2467,7 @@
         <v>132.5</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2487,7 +2502,7 @@
         <v>132.5</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2522,7 +2537,7 @@
         <v>132.5</v>
       </c>
       <c r="K51" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2557,7 +2572,7 @@
         <v>132.5</v>
       </c>
       <c r="K52" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2592,7 +2607,7 @@
         <v>132.5</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2627,7 +2642,7 @@
         <v>100.4</v>
       </c>
       <c r="K54" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2662,7 +2677,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K55" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2697,7 +2712,7 @@
         <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2732,7 +2747,7 @@
         <v>73</v>
       </c>
       <c r="K57" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2767,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2802,7 +2817,7 @@
         <v>40.4</v>
       </c>
       <c r="K59" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2816,7 +2831,7 @@
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2851,7 +2866,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2886,7 +2901,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2921,7 +2936,7 @@
         <v>132.5</v>
       </c>
       <c r="K63" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2956,7 +2971,7 @@
         <v>132.5</v>
       </c>
       <c r="K64" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2991,7 +3006,7 @@
         <v>132.5</v>
       </c>
       <c r="K65" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3005,7 +3020,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3040,7 +3055,7 @@
         <v>120.5</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3075,7 +3090,7 @@
         <v>110.5</v>
       </c>
       <c r="K68" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3110,7 +3125,7 @@
         <v>120.5</v>
       </c>
       <c r="K69" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3145,7 +3160,7 @@
         <v>110.5</v>
       </c>
       <c r="K70" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3180,7 +3195,7 @@
         <v>120.5</v>
       </c>
       <c r="K71" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3215,7 +3230,7 @@
         <v>110.5</v>
       </c>
       <c r="K72" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3250,7 +3265,7 @@
         <v>110.5</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3285,7 +3300,7 @@
         <v>110.5</v>
       </c>
       <c r="K74" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3320,7 +3335,7 @@
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3334,7 +3349,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3369,7 +3384,7 @@
         <v>110.5</v>
       </c>
       <c r="K77" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3404,7 +3419,7 @@
         <v>110.5</v>
       </c>
       <c r="K78" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3439,7 +3454,7 @@
         <v>110.5</v>
       </c>
       <c r="K79" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3474,7 +3489,7 @@
         <v>110.5</v>
       </c>
       <c r="K80" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3509,7 +3524,7 @@
         <v>110.5</v>
       </c>
       <c r="K81" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3523,7 +3538,7 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3558,7 +3573,7 @@
         <v>110.5</v>
       </c>
       <c r="K83" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3593,7 +3608,7 @@
         <v>110.5</v>
       </c>
       <c r="K84" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3628,7 +3643,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K85" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3663,7 +3678,7 @@
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3677,7 +3692,7 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3712,7 +3727,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K88" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3726,7 +3741,7 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3740,7 +3755,7 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3754,7 +3769,7 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3768,7 +3783,7 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3803,7 +3818,7 @@
         <v>110.5</v>
       </c>
       <c r="K93" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3838,7 +3853,7 @@
         <v>110.5</v>
       </c>
       <c r="K94" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3873,7 +3888,7 @@
         <v>110.5</v>
       </c>
       <c r="K95" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3908,7 +3923,7 @@
         <v>110.5</v>
       </c>
       <c r="K96" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3943,7 +3958,7 @@
         <v>120.5</v>
       </c>
       <c r="K97" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3978,7 +3993,7 @@
         <v>110.5</v>
       </c>
       <c r="K98" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4013,7 +4028,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K99" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4048,7 +4063,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4062,7 +4077,7 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4097,7 +4112,7 @@
         <v>110.5</v>
       </c>
       <c r="K102" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4132,7 +4147,7 @@
         <v>110.5</v>
       </c>
       <c r="K103" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4167,7 +4182,7 @@
         <v>110.5</v>
       </c>
       <c r="K104" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4202,7 +4217,7 @@
         <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4237,7 +4252,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="K106" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4272,7 +4287,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="K107" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4286,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4321,7 +4336,7 @@
         <v>125.5</v>
       </c>
       <c r="K109" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4356,7 +4371,7 @@
         <v>125.5</v>
       </c>
       <c r="K110" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4391,7 +4406,7 @@
         <v>125.5</v>
       </c>
       <c r="K111" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4426,7 +4441,7 @@
         <v>125.5</v>
       </c>
       <c r="K112" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4461,7 +4476,7 @@
         <v>102.9</v>
       </c>
       <c r="K113" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4496,7 +4511,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4510,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4545,7 +4560,7 @@
         <v>138</v>
       </c>
       <c r="K116" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4580,7 +4595,7 @@
         <v>138</v>
       </c>
       <c r="K117" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4615,7 +4630,7 @@
         <v>288</v>
       </c>
       <c r="K118" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4650,7 +4665,7 @@
         <v>138</v>
       </c>
       <c r="K119" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4685,7 +4700,7 @@
         <v>288</v>
       </c>
       <c r="K120" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4720,7 +4735,7 @@
         <v>102.9</v>
       </c>
       <c r="K121" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4755,7 +4770,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K122" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4769,7 +4784,7 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4804,7 +4819,7 @@
         <v>125.5</v>
       </c>
       <c r="K124" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4839,7 +4854,7 @@
         <v>138</v>
       </c>
       <c r="K125" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4874,7 +4889,7 @@
         <v>138</v>
       </c>
       <c r="K126" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4909,7 +4924,7 @@
         <v>138</v>
       </c>
       <c r="K127" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4944,7 +4959,7 @@
         <v>138</v>
       </c>
       <c r="K128" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4979,7 +4994,7 @@
         <v>102.9</v>
       </c>
       <c r="K129" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5014,7 +5029,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K130" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5028,7 +5043,7 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5063,7 +5078,7 @@
         <v>138</v>
       </c>
       <c r="K132" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5098,7 +5113,7 @@
         <v>138</v>
       </c>
       <c r="K133" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5133,7 +5148,7 @@
         <v>110.9</v>
       </c>
       <c r="K134" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5168,7 +5183,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K135" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5182,7 +5197,7 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5217,7 +5232,7 @@
         <v>138</v>
       </c>
       <c r="K137" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5252,7 +5267,7 @@
         <v>288</v>
       </c>
       <c r="K138" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5287,7 +5302,7 @@
         <v>138</v>
       </c>
       <c r="K139" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5322,7 +5337,7 @@
         <v>288</v>
       </c>
       <c r="K140" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5357,7 +5372,7 @@
         <v>110.9</v>
       </c>
       <c r="K141" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5392,7 +5407,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K142" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5406,7 +5421,7 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5441,7 +5456,7 @@
         <v>135</v>
       </c>
       <c r="K144" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5476,7 +5491,7 @@
         <v>135</v>
       </c>
       <c r="K145" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5490,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5525,7 +5540,7 @@
         <v>132.5</v>
       </c>
       <c r="K147" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5560,7 +5575,7 @@
         <v>285</v>
       </c>
       <c r="K148" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5595,7 +5610,7 @@
         <v>132.5</v>
       </c>
       <c r="K149" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5630,7 +5645,7 @@
         <v>297.5</v>
       </c>
       <c r="K150" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5665,7 +5680,7 @@
         <v>132.5</v>
       </c>
       <c r="K151" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5700,7 +5715,7 @@
         <v>297.5</v>
       </c>
       <c r="K152" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5714,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5749,7 +5764,7 @@
         <v>132.5</v>
       </c>
       <c r="K154" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5784,7 +5799,7 @@
         <v>110.4</v>
       </c>
       <c r="K155" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5819,7 +5834,7 @@
         <v>108.4</v>
       </c>
       <c r="K156" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5854,7 +5869,7 @@
         <v>40.4</v>
       </c>
       <c r="K157" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5868,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="K158" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5903,7 +5918,7 @@
         <v>125.5</v>
       </c>
       <c r="K159" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5938,7 +5953,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="K160" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5973,7 +5988,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K161" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6008,7 +6023,7 @@
         <v>62.5</v>
       </c>
       <c r="K162" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6043,7 +6058,7 @@
         <v>62.5</v>
       </c>
       <c r="K163" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6078,7 +6093,7 @@
         <v>37.5</v>
       </c>
       <c r="K164" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6092,7 +6107,7 @@
         <v>21</v>
       </c>
       <c r="K165" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6127,7 +6142,7 @@
         <v>37.5</v>
       </c>
       <c r="K166" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6141,7 +6156,7 @@
         <v>21</v>
       </c>
       <c r="K167" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6176,7 +6191,7 @@
         <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6211,7 +6226,7 @@
         <v>62.5</v>
       </c>
       <c r="K169" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6246,7 +6261,7 @@
         <v>62.5</v>
       </c>
       <c r="K170" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6260,7 +6275,7 @@
         <v>21</v>
       </c>
       <c r="K171" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6295,7 +6310,7 @@
         <v>70.5</v>
       </c>
       <c r="K172" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6330,7 +6345,7 @@
         <v>70.5</v>
       </c>
       <c r="K173" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6365,7 +6380,7 @@
         <v>70.5</v>
       </c>
       <c r="K174" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6400,7 +6415,7 @@
         <v>70.5</v>
       </c>
       <c r="K175" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6435,7 +6450,7 @@
         <v>70.5</v>
       </c>
       <c r="K176" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6470,7 +6485,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K177" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6505,7 +6520,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K178" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6519,7 +6534,7 @@
         <v>21</v>
       </c>
       <c r="K179" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6533,7 +6548,7 @@
         <v>17</v>
       </c>
       <c r="K180" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6568,7 +6583,7 @@
         <v>50</v>
       </c>
       <c r="K181" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6603,7 +6618,7 @@
         <v>50</v>
       </c>
       <c r="K182" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6617,7 +6632,7 @@
         <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6652,7 +6667,7 @@
         <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6687,7 +6702,7 @@
         <v>138</v>
       </c>
       <c r="K185" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6722,7 +6737,7 @@
         <v>37.5</v>
       </c>
       <c r="K186" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6757,7 +6772,7 @@
         <v>37.5</v>
       </c>
       <c r="K187" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6792,7 +6807,7 @@
         <v>88</v>
       </c>
       <c r="K188" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6827,7 +6842,7 @@
         <v>88</v>
       </c>
       <c r="K189" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6862,7 +6877,7 @@
         <v>138</v>
       </c>
       <c r="K190" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6897,7 +6912,7 @@
         <v>138</v>
       </c>
       <c r="K191" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6932,7 +6947,7 @@
         <v>200.5</v>
       </c>
       <c r="K192" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6967,7 +6982,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K193" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7002,7 +7017,7 @@
         <v>47.9</v>
       </c>
       <c r="K194" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7037,7 +7052,7 @@
         <v>138</v>
       </c>
       <c r="K195" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7072,7 +7087,7 @@
         <v>313</v>
       </c>
       <c r="K196" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7107,7 +7122,7 @@
         <v>138</v>
       </c>
       <c r="K197" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7142,7 +7157,7 @@
         <v>313</v>
       </c>
       <c r="K198" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7177,7 +7192,7 @@
         <v>138</v>
       </c>
       <c r="K199" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7212,7 +7227,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K200" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7247,7 +7262,7 @@
         <v>47.9</v>
       </c>
       <c r="K201" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7261,7 +7276,7 @@
         <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7275,7 +7290,7 @@
         <v>17</v>
       </c>
       <c r="K203" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7289,7 +7304,7 @@
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7303,7 +7318,7 @@
         <v>17</v>
       </c>
       <c r="K205" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7317,7 +7332,7 @@
         <v>17</v>
       </c>
       <c r="K206" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7331,7 +7346,7 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7345,7 +7360,7 @@
         <v>17</v>
       </c>
       <c r="K208" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7359,7 +7374,7 @@
         <v>17</v>
       </c>
       <c r="K209" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7373,7 +7388,7 @@
         <v>17</v>
       </c>
       <c r="K210" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7387,7 +7402,7 @@
         <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7401,7 +7416,7 @@
         <v>17</v>
       </c>
       <c r="K212" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7415,7 +7430,7 @@
         <v>17</v>
       </c>
       <c r="K213" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7429,7 +7444,7 @@
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7464,7 +7479,7 @@
         <v>60</v>
       </c>
       <c r="K215" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7499,7 +7514,7 @@
         <v>60</v>
       </c>
       <c r="K216" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7534,7 +7549,7 @@
         <v>60</v>
       </c>
       <c r="K217" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7569,7 +7584,7 @@
         <v>60</v>
       </c>
       <c r="K218" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7604,7 +7619,7 @@
         <v>60</v>
       </c>
       <c r="K219" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7639,7 +7654,7 @@
         <v>110.5</v>
       </c>
       <c r="K220" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7674,7 +7689,7 @@
         <v>110.5</v>
       </c>
       <c r="K221" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7709,7 +7724,7 @@
         <v>50</v>
       </c>
       <c r="K222" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7744,7 +7759,7 @@
         <v>30</v>
       </c>
       <c r="K223" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7758,7 +7773,7 @@
         <v>17</v>
       </c>
       <c r="K224" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7793,7 +7808,7 @@
         <v>110.5</v>
       </c>
       <c r="K225" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7828,7 +7843,7 @@
         <v>110.5</v>
       </c>
       <c r="K226" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7863,7 +7878,7 @@
         <v>110.5</v>
       </c>
       <c r="K227" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -7898,7 +7913,7 @@
         <v>110.5</v>
       </c>
       <c r="K228" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7933,7 +7948,7 @@
         <v>110.5</v>
       </c>
       <c r="K229" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -7968,7 +7983,7 @@
         <v>110.5</v>
       </c>
       <c r="K230" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8003,7 +8018,7 @@
         <v>60.4</v>
       </c>
       <c r="K231" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8038,7 +8053,7 @@
         <v>133</v>
       </c>
       <c r="K232" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8073,7 +8088,7 @@
         <v>83</v>
       </c>
       <c r="K233" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8108,7 +8123,7 @@
         <v>83</v>
       </c>
       <c r="K234" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8143,7 +8158,7 @@
         <v>83</v>
       </c>
       <c r="K235" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8178,7 +8193,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K236" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8213,7 +8228,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K237" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8248,7 +8263,7 @@
         <v>83</v>
       </c>
       <c r="K238" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8262,7 +8277,7 @@
         <v>21</v>
       </c>
       <c r="K239" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8297,7 +8312,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K240" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8332,7 +8347,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K241" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8367,7 +8382,7 @@
         <v>50</v>
       </c>
       <c r="K242" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8402,7 +8417,7 @@
         <v>50</v>
       </c>
       <c r="K243" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8416,7 +8431,7 @@
         <v>21</v>
       </c>
       <c r="K244" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8451,7 +8466,7 @@
         <v>138</v>
       </c>
       <c r="K245" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -8486,7 +8501,7 @@
         <v>138</v>
       </c>
       <c r="K246" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -8521,7 +8536,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K247" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -8556,7 +8571,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K248" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -8570,7 +8585,7 @@
         <v>17</v>
       </c>
       <c r="K249" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -8605,7 +8620,7 @@
         <v>60</v>
       </c>
       <c r="K250" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -8640,7 +8655,7 @@
         <v>110.5</v>
       </c>
       <c r="K251" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -8675,7 +8690,7 @@
         <v>110.5</v>
       </c>
       <c r="K252" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -8710,7 +8725,7 @@
         <v>110.5</v>
       </c>
       <c r="K253" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -8745,7 +8760,7 @@
         <v>110.5</v>
       </c>
       <c r="K254" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -8780,7 +8795,7 @@
         <v>110.5</v>
       </c>
       <c r="K255" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -8815,7 +8830,7 @@
         <v>110.5</v>
       </c>
       <c r="K256" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -8850,7 +8865,7 @@
         <v>110.5</v>
       </c>
       <c r="K257" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -8885,7 +8900,7 @@
         <v>110.5</v>
       </c>
       <c r="K258" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -8920,7 +8935,7 @@
         <v>50</v>
       </c>
       <c r="K259" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -8955,7 +8970,7 @@
         <v>50</v>
       </c>
       <c r="K260" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -8969,7 +8984,7 @@
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -9004,7 +9019,7 @@
         <v>110.5</v>
       </c>
       <c r="K262" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -9039,7 +9054,7 @@
         <v>110.5</v>
       </c>
       <c r="K263" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -9074,7 +9089,7 @@
         <v>110.5</v>
       </c>
       <c r="K264" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9109,7 +9124,7 @@
         <v>110.5</v>
       </c>
       <c r="K265" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9144,7 +9159,7 @@
         <v>110.5</v>
       </c>
       <c r="K266" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9179,7 +9194,7 @@
         <v>110.5</v>
       </c>
       <c r="K267" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9214,7 +9229,7 @@
         <v>110.5</v>
       </c>
       <c r="K268" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9249,7 +9264,7 @@
         <v>50</v>
       </c>
       <c r="K269" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9284,7 +9299,7 @@
         <v>50</v>
       </c>
       <c r="K270" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9298,7 +9313,7 @@
         <v>17</v>
       </c>
       <c r="K271" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9333,7 +9348,7 @@
         <v>110.5</v>
       </c>
       <c r="K272" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9368,7 +9383,7 @@
         <v>110.5</v>
       </c>
       <c r="K273" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -9403,7 +9418,7 @@
         <v>110.5</v>
       </c>
       <c r="K274" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -9438,7 +9453,7 @@
         <v>110.5</v>
       </c>
       <c r="K275" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -9473,7 +9488,7 @@
         <v>110.5</v>
       </c>
       <c r="K276" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -9508,7 +9523,7 @@
         <v>110.5</v>
       </c>
       <c r="K277" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -9543,7 +9558,7 @@
         <v>110.5</v>
       </c>
       <c r="K278" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -9578,7 +9593,7 @@
         <v>110.5</v>
       </c>
       <c r="K279" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -9613,7 +9628,7 @@
         <v>110.5</v>
       </c>
       <c r="K280" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -9648,7 +9663,7 @@
         <v>110.5</v>
       </c>
       <c r="K281" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -9683,7 +9698,7 @@
         <v>50</v>
       </c>
       <c r="K282" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -9718,7 +9733,7 @@
         <v>30</v>
       </c>
       <c r="K283" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -9732,7 +9747,7 @@
         <v>17</v>
       </c>
       <c r="K284" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -9767,7 +9782,7 @@
         <v>110.5</v>
       </c>
       <c r="K285" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -9802,7 +9817,7 @@
         <v>110.5</v>
       </c>
       <c r="K286" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -9837,7 +9852,7 @@
         <v>110.5</v>
       </c>
       <c r="K287" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -9872,7 +9887,7 @@
         <v>110.5</v>
       </c>
       <c r="K288" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -9907,7 +9922,7 @@
         <v>110.5</v>
       </c>
       <c r="K289" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -9942,7 +9957,7 @@
         <v>110.5</v>
       </c>
       <c r="K290" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -9977,7 +9992,7 @@
         <v>110.5</v>
       </c>
       <c r="K291" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -10012,7 +10027,7 @@
         <v>110.5</v>
       </c>
       <c r="K292" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -10047,7 +10062,7 @@
         <v>110.5</v>
       </c>
       <c r="K293" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -10082,7 +10097,7 @@
         <v>110.5</v>
       </c>
       <c r="K294" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10117,7 +10132,7 @@
         <v>50</v>
       </c>
       <c r="K295" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10152,7 +10167,7 @@
         <v>30</v>
       </c>
       <c r="K296" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10166,7 +10181,7 @@
         <v>17</v>
       </c>
       <c r="K297" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10201,7 +10216,7 @@
         <v>110.5</v>
       </c>
       <c r="K298" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10236,7 +10251,7 @@
         <v>110.5</v>
       </c>
       <c r="K299" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10271,7 +10286,7 @@
         <v>110.5</v>
       </c>
       <c r="K300" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10306,7 +10321,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K301" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10341,7 +10356,7 @@
         <v>30</v>
       </c>
       <c r="K302" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -10355,7 +10370,7 @@
         <v>17</v>
       </c>
       <c r="K303" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -10390,7 +10405,7 @@
         <v>125.5</v>
       </c>
       <c r="K304" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -10425,7 +10440,7 @@
         <v>125.5</v>
       </c>
       <c r="K305" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -10460,7 +10475,7 @@
         <v>125.5</v>
       </c>
       <c r="K306" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -10495,7 +10510,7 @@
         <v>102.9</v>
       </c>
       <c r="K307" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -10530,7 +10545,7 @@
         <v>37.5</v>
       </c>
       <c r="K308" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -10544,7 +10559,7 @@
         <v>17</v>
       </c>
       <c r="K309" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -10579,7 +10594,7 @@
         <v>125.5</v>
       </c>
       <c r="K310" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -10614,7 +10629,7 @@
         <v>135.5</v>
       </c>
       <c r="K311" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -10649,7 +10664,7 @@
         <v>135.5</v>
       </c>
       <c r="K312" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -10684,7 +10699,7 @@
         <v>102.9</v>
       </c>
       <c r="K313" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -10719,7 +10734,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K314" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -10754,7 +10769,7 @@
         <v>47.9</v>
       </c>
       <c r="K315" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -10789,7 +10804,7 @@
         <v>47.9</v>
       </c>
       <c r="K316" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -10803,7 +10818,7 @@
         <v>21</v>
       </c>
       <c r="K317" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -10838,7 +10853,7 @@
         <v>62.5</v>
       </c>
       <c r="K318" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -10852,7 +10867,7 @@
         <v>21</v>
       </c>
       <c r="K319" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -10887,7 +10902,7 @@
         <v>75</v>
       </c>
       <c r="K320" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -10901,7 +10916,7 @@
         <v>21</v>
       </c>
       <c r="K321" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -10936,7 +10951,7 @@
         <v>193</v>
       </c>
       <c r="K322" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -10971,7 +10986,7 @@
         <v>193</v>
       </c>
       <c r="K323" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -11006,7 +11021,7 @@
         <v>193</v>
       </c>
       <c r="K324" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -11041,7 +11056,7 @@
         <v>193</v>
       </c>
       <c r="K325" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -11076,7 +11091,7 @@
         <v>157.9</v>
       </c>
       <c r="K326" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11111,7 +11126,7 @@
         <v>122.9</v>
       </c>
       <c r="K327" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11146,7 +11161,7 @@
         <v>107.5</v>
       </c>
       <c r="K328" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11181,7 +11196,7 @@
         <v>117.5</v>
       </c>
       <c r="K329" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11216,7 +11231,7 @@
         <v>117.5</v>
       </c>
       <c r="K330" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11251,7 +11266,7 @@
         <v>117.5</v>
       </c>
       <c r="K331" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -11286,7 +11301,7 @@
         <v>47.5</v>
       </c>
       <c r="K332" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -11321,7 +11336,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="K333" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -11356,7 +11371,7 @@
         <v>193</v>
       </c>
       <c r="K334" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -11391,7 +11406,7 @@
         <v>193</v>
       </c>
       <c r="K335" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -11426,7 +11441,7 @@
         <v>193</v>
       </c>
       <c r="K336" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -11461,7 +11476,7 @@
         <v>193</v>
       </c>
       <c r="K337" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -11496,7 +11511,7 @@
         <v>193</v>
       </c>
       <c r="K338" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -11531,7 +11546,7 @@
         <v>157.9</v>
       </c>
       <c r="K339" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -11566,7 +11581,7 @@
         <v>105</v>
       </c>
       <c r="K340" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -11601,7 +11616,7 @@
         <v>105</v>
       </c>
       <c r="K341" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -11636,7 +11651,7 @@
         <v>105</v>
       </c>
       <c r="K342" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -11671,7 +11686,7 @@
         <v>105</v>
       </c>
       <c r="K343" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -11706,7 +11721,7 @@
         <v>120</v>
       </c>
       <c r="K344" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -11741,7 +11756,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K345" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -11776,7 +11791,7 @@
         <v>193</v>
       </c>
       <c r="K346" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -11811,7 +11826,7 @@
         <v>193</v>
       </c>
       <c r="K347" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -11846,7 +11861,7 @@
         <v>193</v>
       </c>
       <c r="K348" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -11881,7 +11896,7 @@
         <v>193</v>
       </c>
       <c r="K349" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -11916,7 +11931,7 @@
         <v>193</v>
       </c>
       <c r="K350" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -11951,7 +11966,7 @@
         <v>157.9</v>
       </c>
       <c r="K351" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -11986,7 +12001,7 @@
         <v>105</v>
       </c>
       <c r="K352" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -12021,7 +12036,7 @@
         <v>105</v>
       </c>
       <c r="K353" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -12056,7 +12071,7 @@
         <v>105</v>
       </c>
       <c r="K354" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -12091,7 +12106,7 @@
         <v>105</v>
       </c>
       <c r="K355" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12126,7 +12141,7 @@
         <v>105</v>
       </c>
       <c r="K356" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12161,7 +12176,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K357" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12196,7 +12211,7 @@
         <v>167.5</v>
       </c>
       <c r="K358" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12231,7 +12246,7 @@
         <v>107.9</v>
       </c>
       <c r="K359" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -12266,7 +12281,7 @@
         <v>58.5</v>
       </c>
       <c r="K360" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -12301,7 +12316,7 @@
         <v>85</v>
       </c>
       <c r="K361" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -12336,7 +12351,7 @@
         <v>85</v>
       </c>
       <c r="K362" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -12371,7 +12386,7 @@
         <v>85</v>
       </c>
       <c r="K363" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -12385,7 +12400,7 @@
         <v>21</v>
       </c>
       <c r="K364" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -12402,7 +12417,7 @@
         <v>77</v>
       </c>
       <c r="K365" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -12437,7 +12452,7 @@
         <v>85</v>
       </c>
       <c r="K366" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -12472,7 +12487,7 @@
         <v>85</v>
       </c>
       <c r="K367" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -12507,7 +12522,7 @@
         <v>60</v>
       </c>
       <c r="K368" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -12542,7 +12557,7 @@
         <v>46.4</v>
       </c>
       <c r="K369" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -12556,7 +12571,7 @@
         <v>21</v>
       </c>
       <c r="K370" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -12570,7 +12585,7 @@
         <v>25</v>
       </c>
       <c r="K371" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -12605,7 +12620,7 @@
         <v>60.4</v>
       </c>
       <c r="K372" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -12619,7 +12634,7 @@
         <v>21</v>
       </c>
       <c r="K373" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -12654,7 +12669,7 @@
         <v>62.5</v>
       </c>
       <c r="K374" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -12689,7 +12704,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K375" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -12724,7 +12739,7 @@
         <v>73</v>
       </c>
       <c r="K376" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -12759,7 +12774,7 @@
         <v>50</v>
       </c>
       <c r="K377" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -12794,7 +12809,7 @@
         <v>30</v>
       </c>
       <c r="K378" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -12829,7 +12844,7 @@
         <v>105</v>
       </c>
       <c r="K379" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -12864,7 +12879,7 @@
         <v>87.5</v>
       </c>
       <c r="K380" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -12899,7 +12914,7 @@
         <v>52.5</v>
       </c>
       <c r="K381" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -12934,7 +12949,7 @@
         <v>58.5</v>
       </c>
       <c r="K382" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -12948,7 +12963,7 @@
         <v>17</v>
       </c>
       <c r="K383" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -12983,7 +12998,7 @@
         <v>60</v>
       </c>
       <c r="K384" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -13018,7 +13033,7 @@
         <v>60</v>
       </c>
       <c r="K385" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -13053,7 +13068,7 @@
         <v>60</v>
       </c>
       <c r="K386" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -13088,7 +13103,7 @@
         <v>60</v>
       </c>
       <c r="K387" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -13123,7 +13138,7 @@
         <v>60</v>
       </c>
       <c r="K388" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -13158,7 +13173,7 @@
         <v>60</v>
       </c>
       <c r="K389" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -13193,7 +13208,7 @@
         <v>60</v>
       </c>
       <c r="K390" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -13228,7 +13243,7 @@
         <v>60</v>
       </c>
       <c r="K391" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -13263,7 +13278,7 @@
         <v>60</v>
       </c>
       <c r="K392" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -13298,7 +13313,7 @@
         <v>60</v>
       </c>
       <c r="K393" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -13312,7 +13327,7 @@
         <v>17</v>
       </c>
       <c r="K394" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -13347,7 +13362,7 @@
         <v>110.5</v>
       </c>
       <c r="K395" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -13382,7 +13397,7 @@
         <v>110.5</v>
       </c>
       <c r="K396" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -13417,7 +13432,7 @@
         <v>110.5</v>
       </c>
       <c r="K397" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -13452,7 +13467,7 @@
         <v>110.5</v>
       </c>
       <c r="K398" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -13487,7 +13502,7 @@
         <v>110.5</v>
       </c>
       <c r="K399" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -13522,7 +13537,7 @@
         <v>110.5</v>
       </c>
       <c r="K400" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -13557,7 +13572,7 @@
         <v>110.5</v>
       </c>
       <c r="K401" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -13592,7 +13607,7 @@
         <v>110.5</v>
       </c>
       <c r="K402" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -13627,7 +13642,7 @@
         <v>110.5</v>
       </c>
       <c r="K403" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -13662,7 +13677,7 @@
         <v>50</v>
       </c>
       <c r="K404" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -13697,7 +13712,7 @@
         <v>50</v>
       </c>
       <c r="K405" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -13732,7 +13747,7 @@
         <v>105</v>
       </c>
       <c r="K406" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -13767,7 +13782,7 @@
         <v>243</v>
       </c>
       <c r="K407" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -13802,7 +13817,7 @@
         <v>243</v>
       </c>
       <c r="K408" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -13837,7 +13852,7 @@
         <v>255.5</v>
       </c>
       <c r="K409" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -13872,7 +13887,7 @@
         <v>255.5</v>
       </c>
       <c r="K410" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -13907,7 +13922,7 @@
         <v>255.5</v>
       </c>
       <c r="K411" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -13942,7 +13957,7 @@
         <v>87.5</v>
       </c>
       <c r="K412" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -13977,7 +13992,7 @@
         <v>157.9</v>
       </c>
       <c r="K413" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -14012,7 +14027,7 @@
         <v>62.5</v>
       </c>
       <c r="K414" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -14047,7 +14062,7 @@
         <v>62.5</v>
       </c>
       <c r="K415" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -14082,7 +14097,7 @@
         <v>193</v>
       </c>
       <c r="K416" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -14117,7 +14132,7 @@
         <v>193</v>
       </c>
       <c r="K417" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -14152,7 +14167,7 @@
         <v>193</v>
       </c>
       <c r="K418" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -14187,7 +14202,7 @@
         <v>193</v>
       </c>
       <c r="K419" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -14222,7 +14237,7 @@
         <v>240.5</v>
       </c>
       <c r="K420" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -14257,7 +14272,7 @@
         <v>157.9</v>
       </c>
       <c r="K421" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -14292,7 +14307,7 @@
         <v>157.9</v>
       </c>
       <c r="K422" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -14327,7 +14342,7 @@
         <v>62.5</v>
       </c>
       <c r="K423" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -14362,7 +14377,7 @@
         <v>102.9</v>
       </c>
       <c r="K424" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -14397,7 +14412,7 @@
         <v>193</v>
       </c>
       <c r="K425" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -14432,7 +14447,7 @@
         <v>193</v>
       </c>
       <c r="K426" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -14467,7 +14482,7 @@
         <v>193</v>
       </c>
       <c r="K427" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -14502,7 +14517,7 @@
         <v>193</v>
       </c>
       <c r="K428" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -14537,7 +14552,7 @@
         <v>193</v>
       </c>
       <c r="K429" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -14572,7 +14587,7 @@
         <v>157.9</v>
       </c>
       <c r="K430" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -14607,7 +14622,7 @@
         <v>52.5</v>
       </c>
       <c r="K431" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -14642,7 +14657,7 @@
         <v>62.5</v>
       </c>
       <c r="K432" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -14677,7 +14692,7 @@
         <v>37.5</v>
       </c>
       <c r="K433" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -14691,7 +14706,7 @@
         <v>17</v>
       </c>
       <c r="K434" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -14726,7 +14741,7 @@
         <v>37.5</v>
       </c>
       <c r="K435" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -14761,7 +14776,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K436" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -14775,7 +14790,7 @@
         <v>17</v>
       </c>
       <c r="K437" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -14810,7 +14825,7 @@
         <v>45</v>
       </c>
       <c r="K438" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -14845,7 +14860,7 @@
         <v>45</v>
       </c>
       <c r="K439" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -14880,7 +14895,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K440" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -14915,7 +14930,7 @@
         <v>22.5</v>
       </c>
       <c r="K441" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -14929,7 +14944,7 @@
         <v>17</v>
       </c>
       <c r="K442" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -14964,7 +14979,7 @@
         <v>45</v>
       </c>
       <c r="K443" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -14999,7 +15014,7 @@
         <v>45</v>
       </c>
       <c r="K444" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -15034,7 +15049,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K445" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -15069,7 +15084,7 @@
         <v>22.5</v>
       </c>
       <c r="K446" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -15083,7 +15098,7 @@
         <v>17</v>
       </c>
       <c r="K447" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -15118,7 +15133,7 @@
         <v>45</v>
       </c>
       <c r="K448" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -15153,7 +15168,7 @@
         <v>45</v>
       </c>
       <c r="K449" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -15188,7 +15203,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K450" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -15223,7 +15238,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K451" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -15237,7 +15252,7 @@
         <v>17</v>
       </c>
       <c r="K452" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -15272,7 +15287,7 @@
         <v>45</v>
       </c>
       <c r="K453" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -15307,7 +15322,7 @@
         <v>83</v>
       </c>
       <c r="K454" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -15342,7 +15357,7 @@
         <v>83</v>
       </c>
       <c r="K455" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -15377,7 +15392,7 @@
         <v>83</v>
       </c>
       <c r="K456" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -15412,7 +15427,7 @@
         <v>83</v>
       </c>
       <c r="K457" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -15447,7 +15462,7 @@
         <v>83</v>
       </c>
       <c r="K458" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -15482,7 +15497,7 @@
         <v>83</v>
       </c>
       <c r="K459" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -15517,7 +15532,7 @@
         <v>83</v>
       </c>
       <c r="K460" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -15552,7 +15567,7 @@
         <v>83</v>
       </c>
       <c r="K461" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -15587,7 +15602,7 @@
         <v>83</v>
       </c>
       <c r="K462" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -15622,7 +15637,7 @@
         <v>83</v>
       </c>
       <c r="K463" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -15657,7 +15672,7 @@
         <v>83</v>
       </c>
       <c r="K464" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -15692,7 +15707,7 @@
         <v>83</v>
       </c>
       <c r="K465" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -15727,7 +15742,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K466" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -15762,7 +15777,2043 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K467" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C468" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468" t="s">
+        <v>17</v>
+      </c>
+      <c r="F468">
+        <v>250</v>
+      </c>
+      <c r="G468">
+        <v>62.5</v>
+      </c>
+      <c r="H468" t="s">
+        <v>27</v>
+      </c>
+      <c r="I468" t="s">
+        <v>123</v>
+      </c>
+      <c r="J468">
+        <v>62.5</v>
+      </c>
+      <c r="K468" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469" t="s">
+        <v>17</v>
+      </c>
+      <c r="F469">
+        <v>250</v>
+      </c>
+      <c r="G469">
+        <v>37.5</v>
+      </c>
+      <c r="H469" t="s">
+        <v>28</v>
+      </c>
+      <c r="I469" t="s">
+        <v>123</v>
+      </c>
+      <c r="J469">
+        <v>37.5</v>
+      </c>
+      <c r="K469" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" t="s">
+        <v>23</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470" t="s">
+        <v>17</v>
+      </c>
+      <c r="F470">
+        <v>150</v>
+      </c>
+      <c r="G470">
+        <v>37.5</v>
+      </c>
+      <c r="H470" t="s">
+        <v>29</v>
+      </c>
+      <c r="I470" t="s">
+        <v>123</v>
+      </c>
+      <c r="J470">
+        <v>37.5</v>
+      </c>
+      <c r="K470" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" t="s">
+        <v>23</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471" t="s">
+        <v>17</v>
+      </c>
+      <c r="F471">
+        <v>150</v>
+      </c>
+      <c r="G471">
+        <v>22.5</v>
+      </c>
+      <c r="H471" t="s">
+        <v>30</v>
+      </c>
+      <c r="I471" t="s">
+        <v>123</v>
+      </c>
+      <c r="J471">
+        <v>22.5</v>
+      </c>
+      <c r="K471" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>16</v>
+      </c>
+      <c r="C472" t="s">
+        <v>23</v>
+      </c>
+      <c r="D472">
+        <v>10.4</v>
+      </c>
+      <c r="E472" t="s">
+        <v>17</v>
+      </c>
+      <c r="F472">
+        <v>202</v>
+      </c>
+      <c r="G472">
+        <v>37.5</v>
+      </c>
+      <c r="H472" t="s">
+        <v>26</v>
+      </c>
+      <c r="I472" t="s">
+        <v>152</v>
+      </c>
+      <c r="J472">
+        <v>47.9</v>
+      </c>
+      <c r="K472" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" t="s">
+        <v>23</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473" t="s">
+        <v>17</v>
+      </c>
+      <c r="F473">
+        <v>150</v>
+      </c>
+      <c r="G473">
+        <v>22.5</v>
+      </c>
+      <c r="H473" t="s">
+        <v>27</v>
+      </c>
+      <c r="I473" t="s">
+        <v>152</v>
+      </c>
+      <c r="J473">
+        <v>22.5</v>
+      </c>
+      <c r="K473" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>16</v>
+      </c>
+      <c r="C474" t="s">
+        <v>14</v>
+      </c>
+      <c r="D474">
+        <v>13</v>
+      </c>
+      <c r="E474" t="s">
+        <v>17</v>
+      </c>
+      <c r="F474">
+        <v>302</v>
+      </c>
+      <c r="G474">
+        <v>75</v>
+      </c>
+      <c r="H474" t="s">
+        <v>26</v>
+      </c>
+      <c r="I474" t="s">
+        <v>123</v>
+      </c>
+      <c r="J474">
+        <v>88</v>
+      </c>
+      <c r="K474" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>14</v>
+      </c>
+      <c r="C475" t="s">
+        <v>14</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475" t="s">
+        <v>17</v>
+      </c>
+      <c r="F475">
+        <v>250</v>
+      </c>
+      <c r="G475">
+        <v>37.5</v>
+      </c>
+      <c r="H475" t="s">
+        <v>31</v>
+      </c>
+      <c r="I475" t="s">
+        <v>123</v>
+      </c>
+      <c r="J475">
+        <v>37.5</v>
+      </c>
+      <c r="K475" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>14</v>
+      </c>
+      <c r="C476" t="s">
+        <v>14</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476" t="s">
+        <v>17</v>
+      </c>
+      <c r="F476">
+        <v>250</v>
+      </c>
+      <c r="G476">
+        <v>37.5</v>
+      </c>
+      <c r="H476" t="s">
+        <v>32</v>
+      </c>
+      <c r="I476" t="s">
+        <v>123</v>
+      </c>
+      <c r="J476">
+        <v>37.5</v>
+      </c>
+      <c r="K476" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="C477" t="s">
+        <v>17</v>
+      </c>
+      <c r="E477" t="s">
+        <v>21</v>
+      </c>
+      <c r="K477" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="C478" t="s">
+        <v>21</v>
+      </c>
+      <c r="E478" t="s">
+        <v>25</v>
+      </c>
+      <c r="F478">
+        <v>1133</v>
+      </c>
+      <c r="K478" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>16</v>
+      </c>
+      <c r="C479" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479">
+        <v>10.4</v>
+      </c>
+      <c r="E479" t="s">
+        <v>17</v>
+      </c>
+      <c r="F479">
+        <v>302</v>
+      </c>
+      <c r="G479">
+        <v>37.5</v>
+      </c>
+      <c r="H479" t="s">
+        <v>34</v>
+      </c>
+      <c r="I479" t="s">
+        <v>123</v>
+      </c>
+      <c r="J479">
+        <v>47.9</v>
+      </c>
+      <c r="K479" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="C480" t="s">
+        <v>17</v>
+      </c>
+      <c r="E480" t="s">
+        <v>21</v>
+      </c>
+      <c r="K480" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="C481" t="s">
+        <v>21</v>
+      </c>
+      <c r="E481" t="s">
+        <v>25</v>
+      </c>
+      <c r="F481">
+        <v>160</v>
+      </c>
+      <c r="K481" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>17</v>
+      </c>
+      <c r="C482" t="s">
+        <v>21</v>
+      </c>
+      <c r="D482">
+        <v>88</v>
+      </c>
+      <c r="E482" t="s">
+        <v>17</v>
+      </c>
+      <c r="F482">
+        <v>702</v>
+      </c>
+      <c r="G482">
+        <v>105</v>
+      </c>
+      <c r="H482" t="s">
+        <v>26</v>
+      </c>
+      <c r="I482" t="s">
+        <v>153</v>
+      </c>
+      <c r="J482">
+        <v>193</v>
+      </c>
+      <c r="K482" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" t="s">
+        <v>21</v>
+      </c>
+      <c r="D483">
+        <v>125.5</v>
+      </c>
+      <c r="E483" t="s">
+        <v>17</v>
+      </c>
+      <c r="F483">
+        <v>852</v>
+      </c>
+      <c r="G483">
+        <v>105</v>
+      </c>
+      <c r="H483" t="s">
+        <v>27</v>
+      </c>
+      <c r="I483" t="s">
+        <v>153</v>
+      </c>
+      <c r="J483">
+        <v>230.5</v>
+      </c>
+      <c r="K483" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>23</v>
+      </c>
+      <c r="C484" t="s">
+        <v>21</v>
+      </c>
+      <c r="D484">
+        <v>125.5</v>
+      </c>
+      <c r="E484" t="s">
+        <v>17</v>
+      </c>
+      <c r="F484">
+        <v>852</v>
+      </c>
+      <c r="G484">
+        <v>105</v>
+      </c>
+      <c r="H484" t="s">
+        <v>28</v>
+      </c>
+      <c r="I484" t="s">
+        <v>153</v>
+      </c>
+      <c r="J484">
+        <v>230.5</v>
+      </c>
+      <c r="K484" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>23</v>
+      </c>
+      <c r="C485" t="s">
+        <v>21</v>
+      </c>
+      <c r="D485">
+        <v>125.5</v>
+      </c>
+      <c r="E485" t="s">
+        <v>17</v>
+      </c>
+      <c r="F485">
+        <v>852</v>
+      </c>
+      <c r="G485">
+        <v>105</v>
+      </c>
+      <c r="H485" t="s">
+        <v>29</v>
+      </c>
+      <c r="I485" t="s">
+        <v>153</v>
+      </c>
+      <c r="J485">
+        <v>230.5</v>
+      </c>
+      <c r="K485" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>23</v>
+      </c>
+      <c r="C486" t="s">
+        <v>21</v>
+      </c>
+      <c r="D486">
+        <v>125.5</v>
+      </c>
+      <c r="E486" t="s">
+        <v>17</v>
+      </c>
+      <c r="F486">
+        <v>852</v>
+      </c>
+      <c r="G486">
+        <v>105</v>
+      </c>
+      <c r="H486" t="s">
+        <v>30</v>
+      </c>
+      <c r="I486" t="s">
+        <v>153</v>
+      </c>
+      <c r="J486">
+        <v>230.5</v>
+      </c>
+      <c r="K486" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>23</v>
+      </c>
+      <c r="C487" t="s">
+        <v>21</v>
+      </c>
+      <c r="D487">
+        <v>125.5</v>
+      </c>
+      <c r="E487" t="s">
+        <v>17</v>
+      </c>
+      <c r="F487">
+        <v>852</v>
+      </c>
+      <c r="G487">
+        <v>105</v>
+      </c>
+      <c r="H487" t="s">
+        <v>31</v>
+      </c>
+      <c r="I487" t="s">
+        <v>153</v>
+      </c>
+      <c r="J487">
+        <v>230.5</v>
+      </c>
+      <c r="K487" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>23</v>
+      </c>
+      <c r="C488" t="s">
+        <v>21</v>
+      </c>
+      <c r="D488">
+        <v>125.5</v>
+      </c>
+      <c r="E488" t="s">
+        <v>17</v>
+      </c>
+      <c r="F488">
+        <v>852</v>
+      </c>
+      <c r="G488">
+        <v>105</v>
+      </c>
+      <c r="H488" t="s">
+        <v>32</v>
+      </c>
+      <c r="I488" t="s">
+        <v>153</v>
+      </c>
+      <c r="J488">
+        <v>230.5</v>
+      </c>
+      <c r="K488" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>23</v>
+      </c>
+      <c r="C489" t="s">
+        <v>21</v>
+      </c>
+      <c r="D489">
+        <v>125.5</v>
+      </c>
+      <c r="E489" t="s">
+        <v>17</v>
+      </c>
+      <c r="F489">
+        <v>852</v>
+      </c>
+      <c r="G489">
+        <v>105</v>
+      </c>
+      <c r="H489" t="s">
+        <v>33</v>
+      </c>
+      <c r="I489" t="s">
+        <v>153</v>
+      </c>
+      <c r="J489">
+        <v>230.5</v>
+      </c>
+      <c r="K489" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>16</v>
+      </c>
+      <c r="C490" t="s">
+        <v>21</v>
+      </c>
+      <c r="D490">
+        <v>138</v>
+      </c>
+      <c r="E490" t="s">
+        <v>17</v>
+      </c>
+      <c r="F490">
+        <v>902</v>
+      </c>
+      <c r="G490">
+        <v>105</v>
+      </c>
+      <c r="H490" t="s">
+        <v>34</v>
+      </c>
+      <c r="I490" t="s">
+        <v>153</v>
+      </c>
+      <c r="J490">
+        <v>243</v>
+      </c>
+      <c r="K490" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>16</v>
+      </c>
+      <c r="C491" t="s">
+        <v>17</v>
+      </c>
+      <c r="D491">
+        <v>50.5</v>
+      </c>
+      <c r="E491" t="s">
+        <v>20</v>
+      </c>
+      <c r="F491">
+        <v>392</v>
+      </c>
+      <c r="G491">
+        <v>57</v>
+      </c>
+      <c r="H491" t="s">
+        <v>35</v>
+      </c>
+      <c r="I491" t="s">
+        <v>153</v>
+      </c>
+      <c r="J491">
+        <v>107.5</v>
+      </c>
+      <c r="K491" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>16</v>
+      </c>
+      <c r="C492" t="s">
+        <v>17</v>
+      </c>
+      <c r="D492">
+        <v>50.5</v>
+      </c>
+      <c r="E492" t="s">
+        <v>20</v>
+      </c>
+      <c r="F492">
+        <v>392</v>
+      </c>
+      <c r="G492">
+        <v>57</v>
+      </c>
+      <c r="H492" t="s">
+        <v>36</v>
+      </c>
+      <c r="I492" t="s">
+        <v>153</v>
+      </c>
+      <c r="J492">
+        <v>107.5</v>
+      </c>
+      <c r="K492" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>16</v>
+      </c>
+      <c r="C493" t="s">
+        <v>17</v>
+      </c>
+      <c r="D493">
+        <v>50.5</v>
+      </c>
+      <c r="E493" t="s">
+        <v>20</v>
+      </c>
+      <c r="F493">
+        <v>392</v>
+      </c>
+      <c r="G493">
+        <v>57</v>
+      </c>
+      <c r="H493" t="s">
+        <v>37</v>
+      </c>
+      <c r="I493" t="s">
+        <v>153</v>
+      </c>
+      <c r="J493">
+        <v>107.5</v>
+      </c>
+      <c r="K493" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>16</v>
+      </c>
+      <c r="C494" t="s">
+        <v>17</v>
+      </c>
+      <c r="D494">
+        <v>50.5</v>
+      </c>
+      <c r="E494" t="s">
+        <v>20</v>
+      </c>
+      <c r="F494">
+        <v>392</v>
+      </c>
+      <c r="G494">
+        <v>57</v>
+      </c>
+      <c r="H494" t="s">
+        <v>37</v>
+      </c>
+      <c r="I494" t="s">
+        <v>153</v>
+      </c>
+      <c r="J494">
+        <v>107.5</v>
+      </c>
+      <c r="K494" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>16</v>
+      </c>
+      <c r="C495" t="s">
+        <v>17</v>
+      </c>
+      <c r="D495">
+        <v>50.5</v>
+      </c>
+      <c r="E495" t="s">
+        <v>20</v>
+      </c>
+      <c r="F495">
+        <v>392</v>
+      </c>
+      <c r="G495">
+        <v>57</v>
+      </c>
+      <c r="H495" t="s">
+        <v>37</v>
+      </c>
+      <c r="I495" t="s">
+        <v>153</v>
+      </c>
+      <c r="J495">
+        <v>107.5</v>
+      </c>
+      <c r="K495" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>16</v>
+      </c>
+      <c r="C496" t="s">
+        <v>17</v>
+      </c>
+      <c r="D496">
+        <v>50.5</v>
+      </c>
+      <c r="E496" t="s">
+        <v>20</v>
+      </c>
+      <c r="F496">
+        <v>392</v>
+      </c>
+      <c r="G496">
+        <v>57</v>
+      </c>
+      <c r="H496" t="s">
+        <v>37</v>
+      </c>
+      <c r="I496" t="s">
+        <v>153</v>
+      </c>
+      <c r="J496">
+        <v>107.5</v>
+      </c>
+      <c r="K496" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>17</v>
+      </c>
+      <c r="C497" t="s">
+        <v>21</v>
+      </c>
+      <c r="D497">
+        <v>88</v>
+      </c>
+      <c r="E497" t="s">
+        <v>17</v>
+      </c>
+      <c r="F497">
+        <v>702</v>
+      </c>
+      <c r="G497">
+        <v>105</v>
+      </c>
+      <c r="H497" t="s">
+        <v>26</v>
+      </c>
+      <c r="I497" t="s">
+        <v>154</v>
+      </c>
+      <c r="J497">
+        <v>193</v>
+      </c>
+      <c r="K497" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>17</v>
+      </c>
+      <c r="C498" t="s">
+        <v>21</v>
+      </c>
+      <c r="D498">
+        <v>88</v>
+      </c>
+      <c r="E498" t="s">
+        <v>17</v>
+      </c>
+      <c r="F498">
+        <v>702</v>
+      </c>
+      <c r="G498">
+        <v>105</v>
+      </c>
+      <c r="H498" t="s">
+        <v>27</v>
+      </c>
+      <c r="I498" t="s">
+        <v>154</v>
+      </c>
+      <c r="J498">
+        <v>193</v>
+      </c>
+      <c r="K498" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>17</v>
+      </c>
+      <c r="C499" t="s">
+        <v>21</v>
+      </c>
+      <c r="D499">
+        <v>88</v>
+      </c>
+      <c r="E499" t="s">
+        <v>17</v>
+      </c>
+      <c r="F499">
+        <v>702</v>
+      </c>
+      <c r="G499">
+        <v>105</v>
+      </c>
+      <c r="H499" t="s">
+        <v>28</v>
+      </c>
+      <c r="I499" t="s">
+        <v>154</v>
+      </c>
+      <c r="J499">
+        <v>193</v>
+      </c>
+      <c r="K499" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>17</v>
+      </c>
+      <c r="C500" t="s">
+        <v>21</v>
+      </c>
+      <c r="D500">
+        <v>88</v>
+      </c>
+      <c r="E500" t="s">
+        <v>17</v>
+      </c>
+      <c r="F500">
+        <v>702</v>
+      </c>
+      <c r="G500">
+        <v>105</v>
+      </c>
+      <c r="H500" t="s">
+        <v>29</v>
+      </c>
+      <c r="I500" t="s">
+        <v>154</v>
+      </c>
+      <c r="J500">
+        <v>193</v>
+      </c>
+      <c r="K500" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>17</v>
+      </c>
+      <c r="C501" t="s">
+        <v>21</v>
+      </c>
+      <c r="D501">
+        <v>88</v>
+      </c>
+      <c r="E501" t="s">
+        <v>17</v>
+      </c>
+      <c r="F501">
+        <v>702</v>
+      </c>
+      <c r="G501">
+        <v>105</v>
+      </c>
+      <c r="H501" t="s">
+        <v>30</v>
+      </c>
+      <c r="I501" t="s">
+        <v>154</v>
+      </c>
+      <c r="J501">
+        <v>193</v>
+      </c>
+      <c r="K501" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>17</v>
+      </c>
+      <c r="C502" t="s">
+        <v>21</v>
+      </c>
+      <c r="D502">
+        <v>88</v>
+      </c>
+      <c r="E502" t="s">
+        <v>17</v>
+      </c>
+      <c r="F502">
+        <v>702</v>
+      </c>
+      <c r="G502">
+        <v>105</v>
+      </c>
+      <c r="H502" t="s">
+        <v>31</v>
+      </c>
+      <c r="I502" t="s">
+        <v>154</v>
+      </c>
+      <c r="J502">
+        <v>193</v>
+      </c>
+      <c r="K502" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>17</v>
+      </c>
+      <c r="C503" t="s">
+        <v>21</v>
+      </c>
+      <c r="D503">
+        <v>88</v>
+      </c>
+      <c r="E503" t="s">
+        <v>17</v>
+      </c>
+      <c r="F503">
+        <v>702</v>
+      </c>
+      <c r="G503">
+        <v>105</v>
+      </c>
+      <c r="H503" t="s">
+        <v>32</v>
+      </c>
+      <c r="I503" t="s">
+        <v>154</v>
+      </c>
+      <c r="J503">
+        <v>193</v>
+      </c>
+      <c r="K503" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>17</v>
+      </c>
+      <c r="C504" t="s">
+        <v>21</v>
+      </c>
+      <c r="D504">
+        <v>88</v>
+      </c>
+      <c r="E504" t="s">
+        <v>17</v>
+      </c>
+      <c r="F504">
+        <v>702</v>
+      </c>
+      <c r="G504">
+        <v>105</v>
+      </c>
+      <c r="H504" t="s">
+        <v>33</v>
+      </c>
+      <c r="I504" t="s">
+        <v>154</v>
+      </c>
+      <c r="J504">
+        <v>193</v>
+      </c>
+      <c r="K504" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>17</v>
+      </c>
+      <c r="C505" t="s">
+        <v>21</v>
+      </c>
+      <c r="D505">
+        <v>88</v>
+      </c>
+      <c r="E505" t="s">
+        <v>17</v>
+      </c>
+      <c r="F505">
+        <v>702</v>
+      </c>
+      <c r="G505">
+        <v>105</v>
+      </c>
+      <c r="H505" t="s">
+        <v>34</v>
+      </c>
+      <c r="I505" t="s">
+        <v>154</v>
+      </c>
+      <c r="J505">
+        <v>193</v>
+      </c>
+      <c r="K505" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>20</v>
+      </c>
+      <c r="C506" t="s">
+        <v>17</v>
+      </c>
+      <c r="D506">
+        <v>48</v>
+      </c>
+      <c r="E506" t="s">
+        <v>20</v>
+      </c>
+      <c r="F506">
+        <v>382</v>
+      </c>
+      <c r="G506">
+        <v>57</v>
+      </c>
+      <c r="H506" t="s">
+        <v>35</v>
+      </c>
+      <c r="I506" t="s">
+        <v>154</v>
+      </c>
+      <c r="J506">
+        <v>105</v>
+      </c>
+      <c r="K506" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>20</v>
+      </c>
+      <c r="C507" t="s">
+        <v>17</v>
+      </c>
+      <c r="D507">
+        <v>48</v>
+      </c>
+      <c r="E507" t="s">
+        <v>20</v>
+      </c>
+      <c r="F507">
+        <v>382</v>
+      </c>
+      <c r="G507">
+        <v>57</v>
+      </c>
+      <c r="H507" t="s">
+        <v>36</v>
+      </c>
+      <c r="I507" t="s">
+        <v>154</v>
+      </c>
+      <c r="J507">
+        <v>105</v>
+      </c>
+      <c r="K507" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>20</v>
+      </c>
+      <c r="C508" t="s">
+        <v>17</v>
+      </c>
+      <c r="D508">
+        <v>48</v>
+      </c>
+      <c r="E508" t="s">
+        <v>20</v>
+      </c>
+      <c r="F508">
+        <v>382</v>
+      </c>
+      <c r="G508">
+        <v>57</v>
+      </c>
+      <c r="H508" t="s">
+        <v>37</v>
+      </c>
+      <c r="I508" t="s">
+        <v>154</v>
+      </c>
+      <c r="J508">
+        <v>105</v>
+      </c>
+      <c r="K508" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>20</v>
+      </c>
+      <c r="C509" t="s">
+        <v>17</v>
+      </c>
+      <c r="D509">
+        <v>48</v>
+      </c>
+      <c r="E509" t="s">
+        <v>20</v>
+      </c>
+      <c r="F509">
+        <v>382</v>
+      </c>
+      <c r="G509">
+        <v>57</v>
+      </c>
+      <c r="H509" t="s">
+        <v>37</v>
+      </c>
+      <c r="I509" t="s">
+        <v>154</v>
+      </c>
+      <c r="J509">
+        <v>105</v>
+      </c>
+      <c r="K509" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>20</v>
+      </c>
+      <c r="C510" t="s">
+        <v>17</v>
+      </c>
+      <c r="D510">
+        <v>48</v>
+      </c>
+      <c r="E510" t="s">
+        <v>20</v>
+      </c>
+      <c r="F510">
+        <v>382</v>
+      </c>
+      <c r="G510">
+        <v>57</v>
+      </c>
+      <c r="H510" t="s">
+        <v>37</v>
+      </c>
+      <c r="I510" t="s">
+        <v>154</v>
+      </c>
+      <c r="J510">
+        <v>105</v>
+      </c>
+      <c r="K510" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>20</v>
+      </c>
+      <c r="C511" t="s">
+        <v>17</v>
+      </c>
+      <c r="D511">
+        <v>48</v>
+      </c>
+      <c r="E511" t="s">
+        <v>20</v>
+      </c>
+      <c r="F511">
+        <v>382</v>
+      </c>
+      <c r="G511">
+        <v>57</v>
+      </c>
+      <c r="H511" t="s">
+        <v>37</v>
+      </c>
+      <c r="I511" t="s">
+        <v>154</v>
+      </c>
+      <c r="J511">
+        <v>105</v>
+      </c>
+      <c r="K511" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>17</v>
+      </c>
+      <c r="C512" t="s">
+        <v>21</v>
+      </c>
+      <c r="D512">
+        <v>88</v>
+      </c>
+      <c r="E512" t="s">
+        <v>17</v>
+      </c>
+      <c r="F512">
+        <v>702</v>
+      </c>
+      <c r="G512">
+        <v>105</v>
+      </c>
+      <c r="H512" t="s">
+        <v>26</v>
+      </c>
+      <c r="I512" t="s">
+        <v>155</v>
+      </c>
+      <c r="J512">
+        <v>193</v>
+      </c>
+      <c r="K512" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>17</v>
+      </c>
+      <c r="C513" t="s">
+        <v>21</v>
+      </c>
+      <c r="D513">
+        <v>88</v>
+      </c>
+      <c r="E513" t="s">
+        <v>17</v>
+      </c>
+      <c r="F513">
+        <v>702</v>
+      </c>
+      <c r="G513">
+        <v>105</v>
+      </c>
+      <c r="H513" t="s">
+        <v>27</v>
+      </c>
+      <c r="I513" t="s">
+        <v>155</v>
+      </c>
+      <c r="J513">
+        <v>193</v>
+      </c>
+      <c r="K513" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C514" t="s">
+        <v>21</v>
+      </c>
+      <c r="D514">
+        <v>88</v>
+      </c>
+      <c r="E514" t="s">
+        <v>17</v>
+      </c>
+      <c r="F514">
+        <v>702</v>
+      </c>
+      <c r="G514">
+        <v>105</v>
+      </c>
+      <c r="H514" t="s">
+        <v>28</v>
+      </c>
+      <c r="I514" t="s">
+        <v>155</v>
+      </c>
+      <c r="J514">
+        <v>193</v>
+      </c>
+      <c r="K514" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>17</v>
+      </c>
+      <c r="C515" t="s">
+        <v>21</v>
+      </c>
+      <c r="D515">
+        <v>88</v>
+      </c>
+      <c r="E515" t="s">
+        <v>17</v>
+      </c>
+      <c r="F515">
+        <v>702</v>
+      </c>
+      <c r="G515">
+        <v>105</v>
+      </c>
+      <c r="H515" t="s">
+        <v>29</v>
+      </c>
+      <c r="I515" t="s">
+        <v>155</v>
+      </c>
+      <c r="J515">
+        <v>193</v>
+      </c>
+      <c r="K515" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>17</v>
+      </c>
+      <c r="C516" t="s">
+        <v>21</v>
+      </c>
+      <c r="D516">
+        <v>88</v>
+      </c>
+      <c r="E516" t="s">
+        <v>17</v>
+      </c>
+      <c r="F516">
+        <v>702</v>
+      </c>
+      <c r="G516">
+        <v>105</v>
+      </c>
+      <c r="H516" t="s">
+        <v>30</v>
+      </c>
+      <c r="I516" t="s">
+        <v>155</v>
+      </c>
+      <c r="J516">
+        <v>193</v>
+      </c>
+      <c r="K516" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>17</v>
+      </c>
+      <c r="C517" t="s">
+        <v>21</v>
+      </c>
+      <c r="D517">
+        <v>88</v>
+      </c>
+      <c r="E517" t="s">
+        <v>17</v>
+      </c>
+      <c r="F517">
+        <v>702</v>
+      </c>
+      <c r="G517">
+        <v>105</v>
+      </c>
+      <c r="H517" t="s">
+        <v>31</v>
+      </c>
+      <c r="I517" t="s">
+        <v>155</v>
+      </c>
+      <c r="J517">
+        <v>193</v>
+      </c>
+      <c r="K517" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>17</v>
+      </c>
+      <c r="C518" t="s">
+        <v>21</v>
+      </c>
+      <c r="D518">
+        <v>88</v>
+      </c>
+      <c r="E518" t="s">
+        <v>17</v>
+      </c>
+      <c r="F518">
+        <v>702</v>
+      </c>
+      <c r="G518">
+        <v>105</v>
+      </c>
+      <c r="H518" t="s">
+        <v>32</v>
+      </c>
+      <c r="I518" t="s">
+        <v>155</v>
+      </c>
+      <c r="J518">
+        <v>193</v>
+      </c>
+      <c r="K518" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>17</v>
+      </c>
+      <c r="C519" t="s">
+        <v>21</v>
+      </c>
+      <c r="D519">
+        <v>88</v>
+      </c>
+      <c r="E519" t="s">
+        <v>17</v>
+      </c>
+      <c r="F519">
+        <v>702</v>
+      </c>
+      <c r="G519">
+        <v>105</v>
+      </c>
+      <c r="H519" t="s">
+        <v>33</v>
+      </c>
+      <c r="I519" t="s">
+        <v>155</v>
+      </c>
+      <c r="J519">
+        <v>193</v>
+      </c>
+      <c r="K519" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C520" t="s">
+        <v>21</v>
+      </c>
+      <c r="D520">
+        <v>88</v>
+      </c>
+      <c r="E520" t="s">
+        <v>17</v>
+      </c>
+      <c r="F520">
+        <v>702</v>
+      </c>
+      <c r="G520">
+        <v>105</v>
+      </c>
+      <c r="H520" t="s">
+        <v>34</v>
+      </c>
+      <c r="I520" t="s">
+        <v>155</v>
+      </c>
+      <c r="J520">
+        <v>193</v>
+      </c>
+      <c r="K520" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>20</v>
+      </c>
+      <c r="C521" t="s">
+        <v>17</v>
+      </c>
+      <c r="D521">
+        <v>48</v>
+      </c>
+      <c r="E521" t="s">
+        <v>20</v>
+      </c>
+      <c r="F521">
+        <v>382</v>
+      </c>
+      <c r="G521">
+        <v>57</v>
+      </c>
+      <c r="H521" t="s">
+        <v>35</v>
+      </c>
+      <c r="I521" t="s">
+        <v>155</v>
+      </c>
+      <c r="J521">
+        <v>105</v>
+      </c>
+      <c r="K521" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>20</v>
+      </c>
+      <c r="C522" t="s">
+        <v>17</v>
+      </c>
+      <c r="D522">
+        <v>48</v>
+      </c>
+      <c r="E522" t="s">
+        <v>20</v>
+      </c>
+      <c r="F522">
+        <v>382</v>
+      </c>
+      <c r="G522">
+        <v>57</v>
+      </c>
+      <c r="H522" t="s">
+        <v>36</v>
+      </c>
+      <c r="I522" t="s">
+        <v>155</v>
+      </c>
+      <c r="J522">
+        <v>105</v>
+      </c>
+      <c r="K522" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>20</v>
+      </c>
+      <c r="C523" t="s">
+        <v>17</v>
+      </c>
+      <c r="D523">
+        <v>48</v>
+      </c>
+      <c r="E523" t="s">
+        <v>20</v>
+      </c>
+      <c r="F523">
+        <v>382</v>
+      </c>
+      <c r="G523">
+        <v>57</v>
+      </c>
+      <c r="H523" t="s">
+        <v>37</v>
+      </c>
+      <c r="I523" t="s">
+        <v>155</v>
+      </c>
+      <c r="J523">
+        <v>105</v>
+      </c>
+      <c r="K523" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>20</v>
+      </c>
+      <c r="C524" t="s">
+        <v>17</v>
+      </c>
+      <c r="D524">
+        <v>48</v>
+      </c>
+      <c r="E524" t="s">
+        <v>20</v>
+      </c>
+      <c r="F524">
+        <v>382</v>
+      </c>
+      <c r="G524">
+        <v>57</v>
+      </c>
+      <c r="H524" t="s">
+        <v>37</v>
+      </c>
+      <c r="I524" t="s">
+        <v>155</v>
+      </c>
+      <c r="J524">
+        <v>105</v>
+      </c>
+      <c r="K524" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>20</v>
+      </c>
+      <c r="C525" t="s">
+        <v>17</v>
+      </c>
+      <c r="D525">
+        <v>48</v>
+      </c>
+      <c r="E525" t="s">
+        <v>20</v>
+      </c>
+      <c r="F525">
+        <v>382</v>
+      </c>
+      <c r="G525">
+        <v>57</v>
+      </c>
+      <c r="H525" t="s">
+        <v>37</v>
+      </c>
+      <c r="I525" t="s">
+        <v>155</v>
+      </c>
+      <c r="J525">
+        <v>105</v>
+      </c>
+      <c r="K525" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>20</v>
+      </c>
+      <c r="C526" t="s">
+        <v>17</v>
+      </c>
+      <c r="D526">
+        <v>48</v>
+      </c>
+      <c r="E526" t="s">
+        <v>20</v>
+      </c>
+      <c r="F526">
+        <v>382</v>
+      </c>
+      <c r="G526">
+        <v>57</v>
+      </c>
+      <c r="H526" t="s">
+        <v>37</v>
+      </c>
+      <c r="I526" t="s">
+        <v>155</v>
+      </c>
+      <c r="J526">
+        <v>105</v>
+      </c>
+      <c r="K526" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>16</v>
+      </c>
+      <c r="C527" t="s">
+        <v>23</v>
+      </c>
+      <c r="D527">
+        <v>10.4</v>
+      </c>
+      <c r="E527" t="s">
+        <v>17</v>
+      </c>
+      <c r="F527">
+        <v>202</v>
+      </c>
+      <c r="G527">
+        <v>37.5</v>
+      </c>
+      <c r="H527" t="s">
+        <v>26</v>
+      </c>
+      <c r="I527" t="s">
+        <v>156</v>
+      </c>
+      <c r="J527">
+        <v>47.9</v>
+      </c>
+      <c r="K527" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="C528" t="s">
+        <v>17</v>
+      </c>
+      <c r="E528" t="s">
+        <v>21</v>
+      </c>
+      <c r="K528" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
